--- a/Covid-19 Resource Planning Data Input Template complex v1.0.xlsx
+++ b/Covid-19 Resource Planning Data Input Template complex v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\templates\EYIP_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51F2592-ADFD-47B2-B9F7-21A4279C7AF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00B4513-956A-4697-B25A-FE79E1F31843}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
   <sheets>
     <sheet name="Usage Guide" sheetId="3" r:id="rId1"/>
@@ -221,6 +221,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,7 +286,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,11 +422,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -425,8 +436,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -457,7 +466,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,8 +514,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma 3" xfId="2" xr:uid="{BA8072D8-D5E3-4F74-A986-A706D3198A55}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -12633,289 +12650,289 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="13"/>
-    <col min="2" max="2" width="36.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="36.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
+      <c r="A2" s="30"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
+      <c r="A3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
+      <c r="A4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="30"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="30"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="30"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="41">
         <v>43911</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="42">
         <v>100000</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="43">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="43">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="44">
         <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="45">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="44">
         <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="44">
         <v>0.03</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="44">
         <v>0.7</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="44">
         <v>0.3</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="50">
+      <c r="E31" s="47">
         <v>100</v>
       </c>
     </row>
@@ -12923,277 +12940,277 @@
       <c r="A33" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="31" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="32" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
+      <c r="A40" s="30"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="44">
+      <c r="E44" s="41">
         <v>43911</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="42">
         <v>100000</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="43">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="43">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="47">
+      <c r="E50" s="44">
         <v>0.3</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="43">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="43">
         <v>20</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="47">
+      <c r="E54" s="44">
         <v>0.02</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="47">
+      <c r="E55" s="44">
         <v>0.03</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="49">
+      <c r="E56" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="47">
+      <c r="E57" s="44">
         <v>0.7</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="47">
+      <c r="E58" s="44">
         <v>0.3</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="50">
+      <c r="E59" s="47">
         <v>100</v>
       </c>
     </row>
@@ -13211,23 +13228,23 @@
   </sheetPr>
   <dimension ref="A1:O276"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="26" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="37.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="53" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -13237,7 +13254,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -13281,2530 +13298,2683 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="28">
         <v>43952</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="22">
         <v>100000</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="23">
         <v>50</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="23">
         <v>10</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="23">
         <v>2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="23">
         <v>4</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="51">
         <v>3</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="23">
         <v>14</v>
       </c>
-      <c r="J2" s="54">
+      <c r="J2" s="51">
         <v>3</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="7">
         <v>0.03</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="8">
         <v>2</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="7">
         <v>0.7</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="7">
         <v>0.3</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="3"/>
-      <c r="H3" s="11"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
       <c r="B4" s="28"/>
-      <c r="C4" s="3"/>
-      <c r="H4" s="11"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
       <c r="B5" s="28"/>
-      <c r="C5" s="3"/>
-      <c r="H5" s="11"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
       <c r="B6" s="28"/>
-      <c r="C6" s="3"/>
-      <c r="H6" s="11"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="23"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
       <c r="B7" s="28"/>
-      <c r="C7" s="3"/>
-      <c r="H7" s="11"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="23"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
       <c r="B8" s="28"/>
-      <c r="C8" s="3"/>
-      <c r="H8" s="11"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="3"/>
-      <c r="H9" s="11"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="3"/>
-      <c r="H10" s="11"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="3"/>
-      <c r="H11" s="11"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="23"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
       <c r="B12" s="28"/>
-      <c r="C12" s="3"/>
-      <c r="H12" s="11"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="3"/>
-      <c r="H13" s="11"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="23"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="55"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="3"/>
-      <c r="H14" s="11"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
-      <c r="C15" s="3"/>
-      <c r="H15" s="11"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="3"/>
-      <c r="H16" s="11"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="3"/>
-      <c r="H17" s="11"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="3"/>
-      <c r="H18" s="11"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="3"/>
-      <c r="H19" s="11"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C20" s="3"/>
-      <c r="H20" s="11"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C21" s="3"/>
-      <c r="H21" s="11"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
-      <c r="H22" s="11"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C23" s="3"/>
-      <c r="H23" s="11"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="54"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="54"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="54"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="54"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="54"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="23"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="54"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="23"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="54"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="23"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="54"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="23"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C24" s="3"/>
-      <c r="H24" s="11"/>
-      <c r="J24" s="55"/>
+      <c r="H24" s="9"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="11"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
-      <c r="H25" s="11"/>
-      <c r="J25" s="55"/>
+      <c r="H25" s="9"/>
+      <c r="J25" s="52"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="11"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
-      <c r="H26" s="11"/>
-      <c r="J26" s="55"/>
+      <c r="H26" s="9"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="11"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="3"/>
-      <c r="H27" s="11"/>
-      <c r="J27" s="55"/>
+      <c r="H27" s="9"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="11"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C28" s="3"/>
-      <c r="H28" s="11"/>
-      <c r="J28" s="55"/>
+      <c r="H28" s="9"/>
+      <c r="J28" s="52"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="11"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
-      <c r="H29" s="11"/>
-      <c r="J29" s="55"/>
+      <c r="H29" s="9"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="11"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
-      <c r="H30" s="11"/>
-      <c r="J30" s="55"/>
+      <c r="H30" s="9"/>
+      <c r="J30" s="52"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="11"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C31" s="3"/>
-      <c r="H31" s="11"/>
-      <c r="J31" s="55"/>
+      <c r="H31" s="9"/>
+      <c r="J31" s="52"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="11"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C32" s="3"/>
-      <c r="H32" s="11"/>
-      <c r="J32" s="55"/>
+      <c r="H32" s="9"/>
+      <c r="J32" s="52"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="11"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C33" s="3"/>
-      <c r="H33" s="11"/>
-      <c r="J33" s="55"/>
+      <c r="H33" s="9"/>
+      <c r="J33" s="52"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="11"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C34" s="3"/>
-      <c r="H34" s="11"/>
-      <c r="J34" s="55"/>
+      <c r="H34" s="9"/>
+      <c r="J34" s="52"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="11"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C35" s="3"/>
-      <c r="H35" s="11"/>
-      <c r="J35" s="55"/>
+      <c r="H35" s="9"/>
+      <c r="J35" s="52"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="11"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C36" s="3"/>
-      <c r="H36" s="11"/>
-      <c r="J36" s="55"/>
+      <c r="H36" s="9"/>
+      <c r="J36" s="52"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="11"/>
+      <c r="L36" s="9"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
-      <c r="H37" s="11"/>
-      <c r="J37" s="55"/>
+      <c r="H37" s="9"/>
+      <c r="J37" s="52"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="11"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C38" s="3"/>
-      <c r="H38" s="11"/>
-      <c r="J38" s="55"/>
+      <c r="H38" s="9"/>
+      <c r="J38" s="52"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="11"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C39" s="3"/>
-      <c r="H39" s="11"/>
-      <c r="J39" s="55"/>
+      <c r="H39" s="9"/>
+      <c r="J39" s="52"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="11"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C40" s="3"/>
-      <c r="H40" s="11"/>
-      <c r="J40" s="55"/>
+      <c r="H40" s="9"/>
+      <c r="J40" s="52"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="11"/>
+      <c r="L40" s="9"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C41" s="3"/>
-      <c r="H41" s="11"/>
-      <c r="J41" s="55"/>
+      <c r="H41" s="9"/>
+      <c r="J41" s="52"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="11"/>
+      <c r="L41" s="9"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C42" s="3"/>
-      <c r="H42" s="11"/>
-      <c r="J42" s="55"/>
+      <c r="H42" s="9"/>
+      <c r="J42" s="52"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="11"/>
+      <c r="L42" s="9"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C43" s="3"/>
-      <c r="H43" s="11"/>
-      <c r="J43" s="55"/>
+      <c r="H43" s="9"/>
+      <c r="J43" s="52"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="11"/>
+      <c r="L43" s="9"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C44" s="3"/>
-      <c r="H44" s="11"/>
-      <c r="J44" s="55"/>
+      <c r="H44" s="9"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="11"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C45" s="3"/>
-      <c r="H45" s="11"/>
-      <c r="J45" s="55"/>
+      <c r="H45" s="9"/>
+      <c r="J45" s="52"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="11"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C46" s="3"/>
-      <c r="H46" s="11"/>
-      <c r="J46" s="55"/>
+      <c r="H46" s="9"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="11"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C47" s="3"/>
-      <c r="H47" s="11"/>
-      <c r="J47" s="55"/>
+      <c r="H47" s="9"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="11"/>
+      <c r="L47" s="9"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C48" s="3"/>
-      <c r="H48" s="11"/>
-      <c r="J48" s="55"/>
+      <c r="H48" s="9"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="11"/>
+      <c r="L48" s="9"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C49" s="3"/>
-      <c r="H49" s="11"/>
-      <c r="J49" s="55"/>
+      <c r="H49" s="9"/>
+      <c r="J49" s="52"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="11"/>
+      <c r="L49" s="9"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C50" s="3"/>
-      <c r="H50" s="11"/>
-      <c r="J50" s="55"/>
+      <c r="H50" s="9"/>
+      <c r="J50" s="52"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="11"/>
+      <c r="L50" s="9"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C51" s="3"/>
-      <c r="H51" s="11"/>
-      <c r="J51" s="55"/>
+      <c r="H51" s="9"/>
+      <c r="J51" s="52"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="11"/>
+      <c r="L51" s="9"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C52" s="3"/>
-      <c r="H52" s="11"/>
-      <c r="J52" s="55"/>
+      <c r="H52" s="9"/>
+      <c r="J52" s="52"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="11"/>
+      <c r="L52" s="9"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C53" s="3"/>
-      <c r="H53" s="11"/>
-      <c r="J53" s="55"/>
+      <c r="H53" s="9"/>
+      <c r="J53" s="52"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="11"/>
+      <c r="L53" s="9"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C54" s="3"/>
-      <c r="H54" s="11"/>
-      <c r="J54" s="55"/>
+      <c r="H54" s="9"/>
+      <c r="J54" s="52"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="11"/>
+      <c r="L54" s="9"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C55" s="3"/>
-      <c r="H55" s="11"/>
-      <c r="J55" s="55"/>
+      <c r="H55" s="9"/>
+      <c r="J55" s="52"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="11"/>
+      <c r="L55" s="9"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C56" s="3"/>
-      <c r="H56" s="11"/>
-      <c r="J56" s="55"/>
+      <c r="H56" s="9"/>
+      <c r="J56" s="52"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="11"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C57" s="3"/>
-      <c r="H57" s="11"/>
-      <c r="J57" s="55"/>
+      <c r="H57" s="9"/>
+      <c r="J57" s="52"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="11"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C58" s="3"/>
-      <c r="H58" s="11"/>
-      <c r="J58" s="55"/>
+      <c r="H58" s="9"/>
+      <c r="J58" s="52"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="11"/>
+      <c r="L58" s="9"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C59" s="3"/>
-      <c r="H59" s="11"/>
-      <c r="J59" s="55"/>
+      <c r="H59" s="9"/>
+      <c r="J59" s="52"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="11"/>
+      <c r="L59" s="9"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C60" s="3"/>
-      <c r="H60" s="11"/>
-      <c r="J60" s="55"/>
+      <c r="H60" s="9"/>
+      <c r="J60" s="52"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="11"/>
+      <c r="L60" s="9"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C61" s="3"/>
-      <c r="H61" s="11"/>
-      <c r="J61" s="55"/>
+      <c r="H61" s="9"/>
+      <c r="J61" s="52"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="11"/>
+      <c r="L61" s="9"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C62" s="3"/>
-      <c r="H62" s="11"/>
-      <c r="J62" s="55"/>
+      <c r="H62" s="9"/>
+      <c r="J62" s="52"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="11"/>
+      <c r="L62" s="9"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C63" s="3"/>
-      <c r="H63" s="11"/>
-      <c r="J63" s="55"/>
+      <c r="H63" s="9"/>
+      <c r="J63" s="52"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="11"/>
+      <c r="L63" s="9"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C64" s="3"/>
-      <c r="H64" s="11"/>
-      <c r="J64" s="55"/>
+      <c r="H64" s="9"/>
+      <c r="J64" s="52"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="11"/>
+      <c r="L64" s="9"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C65" s="3"/>
-      <c r="H65" s="11"/>
-      <c r="J65" s="55"/>
+      <c r="H65" s="9"/>
+      <c r="J65" s="52"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="11"/>
+      <c r="L65" s="9"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
     <row r="66" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C66" s="3"/>
-      <c r="H66" s="11"/>
-      <c r="J66" s="55"/>
+      <c r="H66" s="9"/>
+      <c r="J66" s="52"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="11"/>
+      <c r="L66" s="9"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C67" s="3"/>
-      <c r="H67" s="11"/>
-      <c r="J67" s="55"/>
+      <c r="H67" s="9"/>
+      <c r="J67" s="52"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="11"/>
+      <c r="L67" s="9"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
     <row r="68" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C68" s="3"/>
-      <c r="H68" s="11"/>
-      <c r="J68" s="55"/>
+      <c r="H68" s="9"/>
+      <c r="J68" s="52"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="11"/>
+      <c r="L68" s="9"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C69" s="3"/>
-      <c r="H69" s="11"/>
-      <c r="J69" s="55"/>
+      <c r="H69" s="9"/>
+      <c r="J69" s="52"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="11"/>
+      <c r="L69" s="9"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
     <row r="70" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C70" s="3"/>
-      <c r="H70" s="11"/>
-      <c r="J70" s="55"/>
+      <c r="H70" s="9"/>
+      <c r="J70" s="52"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="11"/>
+      <c r="L70" s="9"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
     </row>
     <row r="71" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C71" s="3"/>
-      <c r="H71" s="11"/>
-      <c r="J71" s="55"/>
+      <c r="H71" s="9"/>
+      <c r="J71" s="52"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="11"/>
+      <c r="L71" s="9"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
     </row>
     <row r="72" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C72" s="3"/>
-      <c r="H72" s="11"/>
-      <c r="J72" s="55"/>
+      <c r="H72" s="9"/>
+      <c r="J72" s="52"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="11"/>
+      <c r="L72" s="9"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
     </row>
     <row r="73" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C73" s="3"/>
-      <c r="H73" s="11"/>
-      <c r="J73" s="55"/>
+      <c r="H73" s="9"/>
+      <c r="J73" s="52"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="11"/>
+      <c r="L73" s="9"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
     </row>
     <row r="74" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C74" s="3"/>
-      <c r="H74" s="11"/>
-      <c r="J74" s="55"/>
+      <c r="H74" s="9"/>
+      <c r="J74" s="52"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="11"/>
+      <c r="L74" s="9"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
     </row>
     <row r="75" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C75" s="3"/>
-      <c r="H75" s="11"/>
-      <c r="J75" s="55"/>
+      <c r="H75" s="9"/>
+      <c r="J75" s="52"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="11"/>
+      <c r="L75" s="9"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
     </row>
     <row r="76" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C76" s="3"/>
-      <c r="H76" s="11"/>
-      <c r="J76" s="55"/>
+      <c r="H76" s="9"/>
+      <c r="J76" s="52"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="11"/>
+      <c r="L76" s="9"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
     </row>
     <row r="77" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C77" s="3"/>
-      <c r="H77" s="11"/>
-      <c r="J77" s="55"/>
+      <c r="H77" s="9"/>
+      <c r="J77" s="52"/>
       <c r="K77" s="4"/>
-      <c r="L77" s="11"/>
+      <c r="L77" s="9"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
     </row>
     <row r="78" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C78" s="3"/>
-      <c r="H78" s="11"/>
-      <c r="J78" s="55"/>
+      <c r="H78" s="9"/>
+      <c r="J78" s="52"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="11"/>
+      <c r="L78" s="9"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C79" s="3"/>
-      <c r="H79" s="11"/>
-      <c r="J79" s="55"/>
+      <c r="H79" s="9"/>
+      <c r="J79" s="52"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="11"/>
+      <c r="L79" s="9"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
     </row>
     <row r="80" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C80" s="3"/>
-      <c r="H80" s="11"/>
-      <c r="J80" s="55"/>
+      <c r="H80" s="9"/>
+      <c r="J80" s="52"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="11"/>
+      <c r="L80" s="9"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C81" s="3"/>
-      <c r="H81" s="11"/>
-      <c r="J81" s="55"/>
+      <c r="H81" s="9"/>
+      <c r="J81" s="52"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="11"/>
+      <c r="L81" s="9"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
     </row>
     <row r="82" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C82" s="3"/>
-      <c r="H82" s="11"/>
-      <c r="J82" s="55"/>
+      <c r="H82" s="9"/>
+      <c r="J82" s="52"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="11"/>
+      <c r="L82" s="9"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
     </row>
     <row r="83" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C83" s="3"/>
-      <c r="H83" s="11"/>
-      <c r="J83" s="55"/>
+      <c r="H83" s="9"/>
+      <c r="J83" s="52"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="11"/>
+      <c r="L83" s="9"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
     </row>
     <row r="84" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C84" s="3"/>
-      <c r="H84" s="11"/>
-      <c r="J84" s="55"/>
+      <c r="H84" s="9"/>
+      <c r="J84" s="52"/>
       <c r="K84" s="4"/>
-      <c r="L84" s="11"/>
+      <c r="L84" s="9"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
     </row>
     <row r="85" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C85" s="3"/>
-      <c r="H85" s="11"/>
-      <c r="J85" s="55"/>
+      <c r="H85" s="9"/>
+      <c r="J85" s="52"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="11"/>
+      <c r="L85" s="9"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
     </row>
     <row r="86" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C86" s="3"/>
-      <c r="H86" s="11"/>
-      <c r="J86" s="55"/>
+      <c r="H86" s="9"/>
+      <c r="J86" s="52"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="11"/>
+      <c r="L86" s="9"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
     <row r="87" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C87" s="3"/>
-      <c r="H87" s="11"/>
-      <c r="J87" s="55"/>
+      <c r="H87" s="9"/>
+      <c r="J87" s="52"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="11"/>
+      <c r="L87" s="9"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
     <row r="88" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C88" s="3"/>
-      <c r="H88" s="11"/>
-      <c r="J88" s="55"/>
+      <c r="H88" s="9"/>
+      <c r="J88" s="52"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="11"/>
+      <c r="L88" s="9"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
     <row r="89" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C89" s="3"/>
-      <c r="H89" s="11"/>
-      <c r="J89" s="55"/>
+      <c r="H89" s="9"/>
+      <c r="J89" s="52"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="11"/>
+      <c r="L89" s="9"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
     <row r="90" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C90" s="3"/>
-      <c r="H90" s="11"/>
-      <c r="J90" s="55"/>
+      <c r="H90" s="9"/>
+      <c r="J90" s="52"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="11"/>
+      <c r="L90" s="9"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
     <row r="91" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C91" s="3"/>
-      <c r="H91" s="11"/>
-      <c r="J91" s="55"/>
+      <c r="H91" s="9"/>
+      <c r="J91" s="52"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="11"/>
+      <c r="L91" s="9"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
     <row r="92" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C92" s="3"/>
-      <c r="H92" s="11"/>
-      <c r="J92" s="55"/>
+      <c r="H92" s="9"/>
+      <c r="J92" s="52"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="11"/>
+      <c r="L92" s="9"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
     <row r="93" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C93" s="3"/>
-      <c r="H93" s="11"/>
-      <c r="J93" s="55"/>
+      <c r="H93" s="9"/>
+      <c r="J93" s="52"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="11"/>
+      <c r="L93" s="9"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
     </row>
     <row r="94" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C94" s="3"/>
-      <c r="H94" s="11"/>
-      <c r="J94" s="55"/>
+      <c r="H94" s="9"/>
+      <c r="J94" s="52"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="11"/>
+      <c r="L94" s="9"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
     <row r="95" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C95" s="3"/>
-      <c r="H95" s="11"/>
-      <c r="J95" s="55"/>
+      <c r="H95" s="9"/>
+      <c r="J95" s="52"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="11"/>
+      <c r="L95" s="9"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
     </row>
     <row r="96" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C96" s="3"/>
-      <c r="H96" s="11"/>
-      <c r="J96" s="55"/>
+      <c r="H96" s="9"/>
+      <c r="J96" s="52"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="11"/>
+      <c r="L96" s="9"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
     </row>
     <row r="97" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C97" s="3"/>
-      <c r="H97" s="11"/>
-      <c r="J97" s="55"/>
+      <c r="H97" s="9"/>
+      <c r="J97" s="52"/>
       <c r="K97" s="4"/>
-      <c r="L97" s="11"/>
+      <c r="L97" s="9"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
     <row r="98" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C98" s="3"/>
-      <c r="H98" s="11"/>
-      <c r="J98" s="55"/>
+      <c r="H98" s="9"/>
+      <c r="J98" s="52"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="11"/>
+      <c r="L98" s="9"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
     </row>
     <row r="99" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C99" s="3"/>
-      <c r="H99" s="11"/>
-      <c r="J99" s="55"/>
+      <c r="H99" s="9"/>
+      <c r="J99" s="52"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="11"/>
+      <c r="L99" s="9"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
     </row>
     <row r="100" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C100" s="3"/>
-      <c r="H100" s="11"/>
-      <c r="J100" s="55"/>
+      <c r="H100" s="9"/>
+      <c r="J100" s="52"/>
       <c r="K100" s="4"/>
-      <c r="L100" s="11"/>
+      <c r="L100" s="9"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
     </row>
     <row r="101" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C101" s="3"/>
-      <c r="H101" s="11"/>
-      <c r="J101" s="55"/>
+      <c r="H101" s="9"/>
+      <c r="J101" s="52"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="11"/>
+      <c r="L101" s="9"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C102" s="3"/>
-      <c r="H102" s="11"/>
-      <c r="J102" s="55"/>
+      <c r="H102" s="9"/>
+      <c r="J102" s="52"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="11"/>
+      <c r="L102" s="9"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
     </row>
     <row r="103" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C103" s="3"/>
-      <c r="H103" s="11"/>
-      <c r="J103" s="55"/>
+      <c r="H103" s="9"/>
+      <c r="J103" s="52"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="11"/>
+      <c r="L103" s="9"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
     <row r="104" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C104" s="3"/>
-      <c r="H104" s="11"/>
-      <c r="J104" s="55"/>
+      <c r="H104" s="9"/>
+      <c r="J104" s="52"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="11"/>
+      <c r="L104" s="9"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
     <row r="105" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C105" s="3"/>
-      <c r="H105" s="11"/>
-      <c r="J105" s="55"/>
+      <c r="H105" s="9"/>
+      <c r="J105" s="52"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="11"/>
+      <c r="L105" s="9"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
     </row>
     <row r="106" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C106" s="3"/>
-      <c r="H106" s="11"/>
-      <c r="J106" s="55"/>
+      <c r="H106" s="9"/>
+      <c r="J106" s="52"/>
       <c r="K106" s="4"/>
-      <c r="L106" s="11"/>
+      <c r="L106" s="9"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
     <row r="107" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C107" s="3"/>
-      <c r="H107" s="11"/>
-      <c r="J107" s="55"/>
+      <c r="H107" s="9"/>
+      <c r="J107" s="52"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="11"/>
+      <c r="L107" s="9"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
     <row r="108" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C108" s="3"/>
-      <c r="H108" s="11"/>
-      <c r="J108" s="55"/>
+      <c r="H108" s="9"/>
+      <c r="J108" s="52"/>
       <c r="K108" s="4"/>
-      <c r="L108" s="11"/>
+      <c r="L108" s="9"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
     <row r="109" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C109" s="3"/>
-      <c r="H109" s="11"/>
-      <c r="J109" s="55"/>
+      <c r="H109" s="9"/>
+      <c r="J109" s="52"/>
       <c r="K109" s="4"/>
-      <c r="L109" s="11"/>
+      <c r="L109" s="9"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
     <row r="110" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C110" s="3"/>
-      <c r="H110" s="11"/>
-      <c r="J110" s="55"/>
+      <c r="H110" s="9"/>
+      <c r="J110" s="52"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="11"/>
+      <c r="L110" s="9"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
     <row r="111" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C111" s="3"/>
-      <c r="H111" s="11"/>
-      <c r="J111" s="55"/>
+      <c r="H111" s="9"/>
+      <c r="J111" s="52"/>
       <c r="K111" s="4"/>
-      <c r="L111" s="11"/>
+      <c r="L111" s="9"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
     <row r="112" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C112" s="3"/>
-      <c r="H112" s="11"/>
-      <c r="J112" s="55"/>
+      <c r="H112" s="9"/>
+      <c r="J112" s="52"/>
       <c r="K112" s="4"/>
-      <c r="L112" s="11"/>
+      <c r="L112" s="9"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
     <row r="113" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C113" s="3"/>
-      <c r="H113" s="11"/>
-      <c r="J113" s="55"/>
+      <c r="H113" s="9"/>
+      <c r="J113" s="52"/>
       <c r="K113" s="4"/>
-      <c r="L113" s="11"/>
+      <c r="L113" s="9"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
     </row>
     <row r="114" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C114" s="3"/>
-      <c r="H114" s="11"/>
-      <c r="J114" s="55"/>
+      <c r="H114" s="9"/>
+      <c r="J114" s="52"/>
       <c r="K114" s="4"/>
-      <c r="L114" s="11"/>
+      <c r="L114" s="9"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
     </row>
     <row r="115" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C115" s="3"/>
-      <c r="H115" s="11"/>
-      <c r="J115" s="55"/>
+      <c r="H115" s="9"/>
+      <c r="J115" s="52"/>
       <c r="K115" s="4"/>
-      <c r="L115" s="11"/>
+      <c r="L115" s="9"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
     <row r="116" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C116" s="3"/>
-      <c r="H116" s="11"/>
-      <c r="J116" s="55"/>
+      <c r="H116" s="9"/>
+      <c r="J116" s="52"/>
       <c r="K116" s="4"/>
-      <c r="L116" s="11"/>
+      <c r="L116" s="9"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
     </row>
     <row r="117" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C117" s="3"/>
-      <c r="H117" s="11"/>
-      <c r="J117" s="55"/>
+      <c r="H117" s="9"/>
+      <c r="J117" s="52"/>
       <c r="K117" s="4"/>
-      <c r="L117" s="11"/>
+      <c r="L117" s="9"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
     </row>
     <row r="118" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C118" s="3"/>
-      <c r="H118" s="11"/>
-      <c r="J118" s="55"/>
+      <c r="H118" s="9"/>
+      <c r="J118" s="52"/>
       <c r="K118" s="4"/>
-      <c r="L118" s="11"/>
+      <c r="L118" s="9"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
     </row>
     <row r="119" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C119" s="3"/>
-      <c r="H119" s="11"/>
-      <c r="J119" s="55"/>
+      <c r="H119" s="9"/>
+      <c r="J119" s="52"/>
       <c r="K119" s="4"/>
-      <c r="L119" s="11"/>
+      <c r="L119" s="9"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
     </row>
     <row r="120" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C120" s="3"/>
-      <c r="H120" s="11"/>
-      <c r="J120" s="55"/>
+      <c r="H120" s="9"/>
+      <c r="J120" s="52"/>
       <c r="K120" s="4"/>
-      <c r="L120" s="11"/>
+      <c r="L120" s="9"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
     </row>
     <row r="121" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C121" s="3"/>
-      <c r="H121" s="11"/>
-      <c r="J121" s="55"/>
+      <c r="H121" s="9"/>
+      <c r="J121" s="52"/>
       <c r="K121" s="4"/>
-      <c r="L121" s="11"/>
+      <c r="L121" s="9"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
     </row>
     <row r="122" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C122" s="3"/>
-      <c r="H122" s="11"/>
-      <c r="J122" s="55"/>
+      <c r="H122" s="9"/>
+      <c r="J122" s="52"/>
       <c r="K122" s="4"/>
-      <c r="L122" s="11"/>
+      <c r="L122" s="9"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
     </row>
     <row r="123" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C123" s="3"/>
-      <c r="H123" s="11"/>
-      <c r="J123" s="55"/>
+      <c r="H123" s="9"/>
+      <c r="J123" s="52"/>
       <c r="K123" s="4"/>
-      <c r="L123" s="11"/>
+      <c r="L123" s="9"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
     </row>
     <row r="124" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C124" s="3"/>
-      <c r="H124" s="11"/>
-      <c r="J124" s="55"/>
+      <c r="H124" s="9"/>
+      <c r="J124" s="52"/>
       <c r="K124" s="4"/>
-      <c r="L124" s="11"/>
+      <c r="L124" s="9"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
     </row>
     <row r="125" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C125" s="3"/>
-      <c r="H125" s="11"/>
-      <c r="J125" s="55"/>
+      <c r="H125" s="9"/>
+      <c r="J125" s="52"/>
       <c r="K125" s="4"/>
-      <c r="L125" s="11"/>
+      <c r="L125" s="9"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
     </row>
     <row r="126" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C126" s="3"/>
-      <c r="H126" s="11"/>
-      <c r="J126" s="55"/>
+      <c r="H126" s="9"/>
+      <c r="J126" s="52"/>
       <c r="K126" s="4"/>
-      <c r="L126" s="11"/>
+      <c r="L126" s="9"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
     </row>
     <row r="127" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C127" s="3"/>
-      <c r="H127" s="11"/>
-      <c r="J127" s="55"/>
+      <c r="H127" s="9"/>
+      <c r="J127" s="52"/>
       <c r="K127" s="4"/>
-      <c r="L127" s="11"/>
+      <c r="L127" s="9"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
     </row>
     <row r="128" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C128" s="3"/>
-      <c r="H128" s="11"/>
-      <c r="J128" s="55"/>
+      <c r="H128" s="9"/>
+      <c r="J128" s="52"/>
       <c r="K128" s="4"/>
-      <c r="L128" s="11"/>
+      <c r="L128" s="9"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
     </row>
     <row r="129" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C129" s="3"/>
-      <c r="H129" s="11"/>
-      <c r="J129" s="55"/>
+      <c r="H129" s="9"/>
+      <c r="J129" s="52"/>
       <c r="K129" s="4"/>
-      <c r="L129" s="11"/>
+      <c r="L129" s="9"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
     </row>
     <row r="130" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C130" s="3"/>
-      <c r="H130" s="11"/>
-      <c r="J130" s="55"/>
+      <c r="H130" s="9"/>
+      <c r="J130" s="52"/>
       <c r="K130" s="4"/>
-      <c r="L130" s="11"/>
+      <c r="L130" s="9"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
     </row>
     <row r="131" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C131" s="3"/>
-      <c r="H131" s="11"/>
-      <c r="J131" s="55"/>
+      <c r="H131" s="9"/>
+      <c r="J131" s="52"/>
       <c r="K131" s="4"/>
-      <c r="L131" s="11"/>
+      <c r="L131" s="9"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
     </row>
     <row r="132" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C132" s="3"/>
-      <c r="H132" s="11"/>
-      <c r="J132" s="55"/>
+      <c r="H132" s="9"/>
+      <c r="J132" s="52"/>
       <c r="K132" s="4"/>
-      <c r="L132" s="11"/>
+      <c r="L132" s="9"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
     </row>
     <row r="133" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C133" s="3"/>
-      <c r="H133" s="11"/>
-      <c r="J133" s="55"/>
+      <c r="H133" s="9"/>
+      <c r="J133" s="52"/>
       <c r="K133" s="4"/>
-      <c r="L133" s="11"/>
+      <c r="L133" s="9"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
     </row>
     <row r="134" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C134" s="3"/>
-      <c r="H134" s="11"/>
-      <c r="J134" s="55"/>
+      <c r="H134" s="9"/>
+      <c r="J134" s="52"/>
       <c r="K134" s="4"/>
-      <c r="L134" s="11"/>
+      <c r="L134" s="9"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
     </row>
     <row r="135" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C135" s="3"/>
-      <c r="H135" s="11"/>
-      <c r="J135" s="55"/>
+      <c r="H135" s="9"/>
+      <c r="J135" s="52"/>
       <c r="K135" s="4"/>
-      <c r="L135" s="11"/>
+      <c r="L135" s="9"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
     </row>
     <row r="136" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C136" s="3"/>
-      <c r="H136" s="11"/>
-      <c r="J136" s="55"/>
+      <c r="H136" s="9"/>
+      <c r="J136" s="52"/>
       <c r="K136" s="4"/>
-      <c r="L136" s="11"/>
+      <c r="L136" s="9"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
     </row>
     <row r="137" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C137" s="3"/>
-      <c r="H137" s="11"/>
-      <c r="J137" s="55"/>
+      <c r="H137" s="9"/>
+      <c r="J137" s="52"/>
       <c r="K137" s="4"/>
-      <c r="L137" s="11"/>
+      <c r="L137" s="9"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
     </row>
     <row r="138" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C138" s="3"/>
-      <c r="H138" s="11"/>
-      <c r="J138" s="55"/>
+      <c r="H138" s="9"/>
+      <c r="J138" s="52"/>
       <c r="K138" s="4"/>
-      <c r="L138" s="11"/>
+      <c r="L138" s="9"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
     </row>
     <row r="139" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C139" s="3"/>
-      <c r="H139" s="11"/>
-      <c r="J139" s="55"/>
+      <c r="H139" s="9"/>
+      <c r="J139" s="52"/>
       <c r="K139" s="4"/>
-      <c r="L139" s="11"/>
+      <c r="L139" s="9"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
     </row>
     <row r="140" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C140" s="3"/>
-      <c r="H140" s="11"/>
-      <c r="J140" s="55"/>
+      <c r="H140" s="9"/>
+      <c r="J140" s="52"/>
       <c r="K140" s="4"/>
-      <c r="L140" s="11"/>
+      <c r="L140" s="9"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
     </row>
     <row r="141" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C141" s="3"/>
-      <c r="H141" s="11"/>
-      <c r="J141" s="55"/>
+      <c r="H141" s="9"/>
+      <c r="J141" s="52"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="11"/>
+      <c r="L141" s="9"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
     </row>
     <row r="142" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C142" s="3"/>
-      <c r="H142" s="11"/>
-      <c r="J142" s="55"/>
+      <c r="H142" s="9"/>
+      <c r="J142" s="52"/>
       <c r="K142" s="4"/>
-      <c r="L142" s="11"/>
+      <c r="L142" s="9"/>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
     </row>
     <row r="143" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C143" s="3"/>
-      <c r="H143" s="11"/>
-      <c r="J143" s="55"/>
+      <c r="H143" s="9"/>
+      <c r="J143" s="52"/>
       <c r="K143" s="4"/>
-      <c r="L143" s="11"/>
+      <c r="L143" s="9"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
     </row>
     <row r="144" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C144" s="3"/>
-      <c r="H144" s="11"/>
-      <c r="J144" s="55"/>
+      <c r="H144" s="9"/>
+      <c r="J144" s="52"/>
       <c r="K144" s="4"/>
-      <c r="L144" s="11"/>
+      <c r="L144" s="9"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
     </row>
     <row r="145" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C145" s="3"/>
-      <c r="H145" s="11"/>
-      <c r="J145" s="55"/>
+      <c r="H145" s="9"/>
+      <c r="J145" s="52"/>
       <c r="K145" s="4"/>
-      <c r="L145" s="11"/>
+      <c r="L145" s="9"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
     </row>
     <row r="146" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C146" s="3"/>
-      <c r="H146" s="11"/>
-      <c r="J146" s="55"/>
+      <c r="H146" s="9"/>
+      <c r="J146" s="52"/>
       <c r="K146" s="4"/>
-      <c r="L146" s="11"/>
+      <c r="L146" s="9"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
     </row>
     <row r="147" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C147" s="3"/>
-      <c r="H147" s="11"/>
-      <c r="J147" s="55"/>
+      <c r="H147" s="9"/>
+      <c r="J147" s="52"/>
       <c r="K147" s="4"/>
-      <c r="L147" s="11"/>
+      <c r="L147" s="9"/>
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
     </row>
     <row r="148" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C148" s="3"/>
-      <c r="H148" s="11"/>
-      <c r="J148" s="55"/>
+      <c r="H148" s="9"/>
+      <c r="J148" s="52"/>
       <c r="K148" s="4"/>
-      <c r="L148" s="11"/>
+      <c r="L148" s="9"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
     </row>
     <row r="149" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C149" s="3"/>
-      <c r="H149" s="11"/>
-      <c r="J149" s="55"/>
+      <c r="H149" s="9"/>
+      <c r="J149" s="52"/>
       <c r="K149" s="4"/>
-      <c r="L149" s="11"/>
+      <c r="L149" s="9"/>
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
     </row>
     <row r="150" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C150" s="3"/>
-      <c r="H150" s="11"/>
-      <c r="J150" s="55"/>
+      <c r="H150" s="9"/>
+      <c r="J150" s="52"/>
       <c r="K150" s="4"/>
-      <c r="L150" s="11"/>
+      <c r="L150" s="9"/>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
     </row>
     <row r="151" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C151" s="3"/>
-      <c r="H151" s="11"/>
-      <c r="J151" s="55"/>
+      <c r="H151" s="9"/>
+      <c r="J151" s="52"/>
       <c r="K151" s="4"/>
-      <c r="L151" s="11"/>
+      <c r="L151" s="9"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
     </row>
     <row r="152" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C152" s="3"/>
-      <c r="H152" s="11"/>
-      <c r="J152" s="55"/>
+      <c r="H152" s="9"/>
+      <c r="J152" s="52"/>
       <c r="K152" s="4"/>
-      <c r="L152" s="11"/>
+      <c r="L152" s="9"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
     </row>
     <row r="153" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C153" s="3"/>
-      <c r="H153" s="11"/>
-      <c r="J153" s="55"/>
+      <c r="H153" s="9"/>
+      <c r="J153" s="52"/>
       <c r="K153" s="4"/>
-      <c r="L153" s="11"/>
+      <c r="L153" s="9"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
     </row>
     <row r="154" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C154" s="3"/>
-      <c r="H154" s="11"/>
-      <c r="J154" s="55"/>
+      <c r="H154" s="9"/>
+      <c r="J154" s="52"/>
       <c r="K154" s="4"/>
-      <c r="L154" s="11"/>
+      <c r="L154" s="9"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
     </row>
     <row r="155" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C155" s="3"/>
-      <c r="H155" s="11"/>
-      <c r="J155" s="55"/>
+      <c r="H155" s="9"/>
+      <c r="J155" s="52"/>
       <c r="K155" s="4"/>
-      <c r="L155" s="11"/>
+      <c r="L155" s="9"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
     </row>
     <row r="156" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C156" s="3"/>
-      <c r="H156" s="11"/>
-      <c r="J156" s="55"/>
+      <c r="H156" s="9"/>
+      <c r="J156" s="52"/>
       <c r="K156" s="4"/>
-      <c r="L156" s="11"/>
+      <c r="L156" s="9"/>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C157" s="3"/>
-      <c r="H157" s="11"/>
-      <c r="J157" s="55"/>
+      <c r="H157" s="9"/>
+      <c r="J157" s="52"/>
       <c r="K157" s="4"/>
-      <c r="L157" s="11"/>
+      <c r="L157" s="9"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
     </row>
     <row r="158" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C158" s="3"/>
-      <c r="H158" s="11"/>
-      <c r="J158" s="55"/>
+      <c r="H158" s="9"/>
+      <c r="J158" s="52"/>
       <c r="K158" s="4"/>
-      <c r="L158" s="11"/>
+      <c r="L158" s="9"/>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
     </row>
     <row r="159" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C159" s="3"/>
-      <c r="H159" s="11"/>
-      <c r="J159" s="55"/>
+      <c r="H159" s="9"/>
+      <c r="J159" s="52"/>
       <c r="K159" s="4"/>
-      <c r="L159" s="11"/>
+      <c r="L159" s="9"/>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
     </row>
     <row r="160" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C160" s="3"/>
-      <c r="H160" s="11"/>
-      <c r="J160" s="55"/>
+      <c r="H160" s="9"/>
+      <c r="J160" s="52"/>
       <c r="K160" s="4"/>
-      <c r="L160" s="11"/>
+      <c r="L160" s="9"/>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
     </row>
     <row r="161" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C161" s="3"/>
-      <c r="H161" s="11"/>
-      <c r="J161" s="55"/>
+      <c r="H161" s="9"/>
+      <c r="J161" s="52"/>
       <c r="K161" s="4"/>
-      <c r="L161" s="11"/>
+      <c r="L161" s="9"/>
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
     </row>
     <row r="162" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C162" s="3"/>
-      <c r="H162" s="11"/>
-      <c r="J162" s="55"/>
+      <c r="H162" s="9"/>
+      <c r="J162" s="52"/>
       <c r="K162" s="4"/>
-      <c r="L162" s="11"/>
+      <c r="L162" s="9"/>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
     </row>
     <row r="163" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C163" s="3"/>
-      <c r="H163" s="11"/>
-      <c r="J163" s="55"/>
+      <c r="H163" s="9"/>
+      <c r="J163" s="52"/>
       <c r="K163" s="4"/>
-      <c r="L163" s="11"/>
+      <c r="L163" s="9"/>
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
     </row>
     <row r="164" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C164" s="3"/>
-      <c r="H164" s="11"/>
-      <c r="J164" s="55"/>
+      <c r="H164" s="9"/>
+      <c r="J164" s="52"/>
       <c r="K164" s="4"/>
-      <c r="L164" s="11"/>
+      <c r="L164" s="9"/>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
     </row>
     <row r="165" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C165" s="3"/>
-      <c r="H165" s="11"/>
-      <c r="J165" s="55"/>
+      <c r="H165" s="9"/>
+      <c r="J165" s="52"/>
       <c r="K165" s="4"/>
-      <c r="L165" s="11"/>
+      <c r="L165" s="9"/>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
     </row>
     <row r="166" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C166" s="3"/>
-      <c r="H166" s="11"/>
-      <c r="J166" s="55"/>
+      <c r="H166" s="9"/>
+      <c r="J166" s="52"/>
       <c r="K166" s="4"/>
-      <c r="L166" s="11"/>
+      <c r="L166" s="9"/>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
     </row>
     <row r="167" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C167" s="3"/>
-      <c r="H167" s="11"/>
-      <c r="J167" s="55"/>
+      <c r="H167" s="9"/>
+      <c r="J167" s="52"/>
       <c r="K167" s="4"/>
-      <c r="L167" s="11"/>
+      <c r="L167" s="9"/>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
     </row>
     <row r="168" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C168" s="3"/>
-      <c r="H168" s="11"/>
-      <c r="J168" s="55"/>
+      <c r="H168" s="9"/>
+      <c r="J168" s="52"/>
       <c r="K168" s="4"/>
-      <c r="L168" s="11"/>
+      <c r="L168" s="9"/>
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
     </row>
     <row r="169" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C169" s="3"/>
-      <c r="H169" s="11"/>
-      <c r="J169" s="55"/>
+      <c r="H169" s="9"/>
+      <c r="J169" s="52"/>
       <c r="K169" s="4"/>
-      <c r="L169" s="11"/>
+      <c r="L169" s="9"/>
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
     </row>
     <row r="170" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C170" s="3"/>
-      <c r="H170" s="11"/>
-      <c r="J170" s="55"/>
+      <c r="H170" s="9"/>
+      <c r="J170" s="52"/>
       <c r="K170" s="4"/>
-      <c r="L170" s="11"/>
+      <c r="L170" s="9"/>
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
     </row>
     <row r="171" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C171" s="3"/>
-      <c r="H171" s="11"/>
-      <c r="J171" s="55"/>
+      <c r="H171" s="9"/>
+      <c r="J171" s="52"/>
       <c r="K171" s="4"/>
-      <c r="L171" s="11"/>
+      <c r="L171" s="9"/>
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
     </row>
     <row r="172" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C172" s="3"/>
-      <c r="H172" s="11"/>
-      <c r="J172" s="55"/>
+      <c r="H172" s="9"/>
+      <c r="J172" s="52"/>
       <c r="K172" s="4"/>
-      <c r="L172" s="11"/>
+      <c r="L172" s="9"/>
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
     </row>
     <row r="173" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C173" s="3"/>
-      <c r="H173" s="11"/>
-      <c r="J173" s="55"/>
+      <c r="H173" s="9"/>
+      <c r="J173" s="52"/>
       <c r="K173" s="4"/>
-      <c r="L173" s="11"/>
+      <c r="L173" s="9"/>
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
     </row>
     <row r="174" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C174" s="3"/>
-      <c r="H174" s="11"/>
-      <c r="J174" s="55"/>
+      <c r="H174" s="9"/>
+      <c r="J174" s="52"/>
       <c r="K174" s="4"/>
-      <c r="L174" s="11"/>
+      <c r="L174" s="9"/>
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
     </row>
     <row r="175" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C175" s="3"/>
-      <c r="H175" s="11"/>
-      <c r="J175" s="55"/>
+      <c r="H175" s="9"/>
+      <c r="J175" s="52"/>
       <c r="K175" s="4"/>
-      <c r="L175" s="11"/>
+      <c r="L175" s="9"/>
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
     </row>
     <row r="176" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C176" s="3"/>
-      <c r="H176" s="11"/>
-      <c r="J176" s="55"/>
+      <c r="H176" s="9"/>
+      <c r="J176" s="52"/>
       <c r="K176" s="4"/>
-      <c r="L176" s="11"/>
+      <c r="L176" s="9"/>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
     </row>
     <row r="177" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C177" s="3"/>
-      <c r="H177" s="11"/>
-      <c r="J177" s="55"/>
+      <c r="H177" s="9"/>
+      <c r="J177" s="52"/>
       <c r="K177" s="4"/>
-      <c r="L177" s="11"/>
+      <c r="L177" s="9"/>
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
     </row>
     <row r="178" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C178" s="3"/>
-      <c r="H178" s="11"/>
-      <c r="J178" s="55"/>
+      <c r="H178" s="9"/>
+      <c r="J178" s="52"/>
       <c r="K178" s="4"/>
-      <c r="L178" s="11"/>
+      <c r="L178" s="9"/>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
     </row>
     <row r="179" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C179" s="3"/>
-      <c r="H179" s="11"/>
-      <c r="J179" s="55"/>
+      <c r="H179" s="9"/>
+      <c r="J179" s="52"/>
       <c r="K179" s="4"/>
-      <c r="L179" s="11"/>
+      <c r="L179" s="9"/>
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
     </row>
     <row r="180" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C180" s="3"/>
-      <c r="H180" s="11"/>
-      <c r="J180" s="55"/>
+      <c r="H180" s="9"/>
+      <c r="J180" s="52"/>
       <c r="K180" s="4"/>
-      <c r="L180" s="11"/>
+      <c r="L180" s="9"/>
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
     </row>
     <row r="181" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C181" s="3"/>
-      <c r="H181" s="11"/>
-      <c r="J181" s="55"/>
+      <c r="H181" s="9"/>
+      <c r="J181" s="52"/>
       <c r="K181" s="4"/>
-      <c r="L181" s="11"/>
+      <c r="L181" s="9"/>
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
     </row>
     <row r="182" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C182" s="3"/>
-      <c r="H182" s="11"/>
-      <c r="J182" s="55"/>
+      <c r="H182" s="9"/>
+      <c r="J182" s="52"/>
       <c r="K182" s="4"/>
-      <c r="L182" s="11"/>
+      <c r="L182" s="9"/>
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
     </row>
     <row r="183" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C183" s="3"/>
-      <c r="H183" s="11"/>
-      <c r="J183" s="55"/>
+      <c r="H183" s="9"/>
+      <c r="J183" s="52"/>
       <c r="K183" s="4"/>
-      <c r="L183" s="11"/>
+      <c r="L183" s="9"/>
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
     </row>
     <row r="184" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C184" s="3"/>
-      <c r="H184" s="11"/>
-      <c r="J184" s="55"/>
+      <c r="H184" s="9"/>
+      <c r="J184" s="52"/>
       <c r="K184" s="4"/>
-      <c r="L184" s="11"/>
+      <c r="L184" s="9"/>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
     </row>
     <row r="185" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C185" s="3"/>
-      <c r="H185" s="11"/>
-      <c r="J185" s="55"/>
+      <c r="H185" s="9"/>
+      <c r="J185" s="52"/>
       <c r="K185" s="4"/>
-      <c r="L185" s="11"/>
+      <c r="L185" s="9"/>
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
     </row>
     <row r="186" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C186" s="3"/>
-      <c r="H186" s="11"/>
-      <c r="J186" s="55"/>
+      <c r="H186" s="9"/>
+      <c r="J186" s="52"/>
       <c r="K186" s="4"/>
-      <c r="L186" s="11"/>
+      <c r="L186" s="9"/>
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
     </row>
     <row r="187" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C187" s="3"/>
-      <c r="H187" s="11"/>
-      <c r="J187" s="55"/>
+      <c r="H187" s="9"/>
+      <c r="J187" s="52"/>
       <c r="K187" s="4"/>
-      <c r="L187" s="11"/>
+      <c r="L187" s="9"/>
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
     </row>
     <row r="188" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C188" s="3"/>
-      <c r="H188" s="11"/>
-      <c r="J188" s="55"/>
+      <c r="H188" s="9"/>
+      <c r="J188" s="52"/>
       <c r="K188" s="4"/>
-      <c r="L188" s="11"/>
+      <c r="L188" s="9"/>
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
     </row>
     <row r="189" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C189" s="3"/>
-      <c r="H189" s="11"/>
-      <c r="J189" s="55"/>
+      <c r="H189" s="9"/>
+      <c r="J189" s="52"/>
       <c r="K189" s="4"/>
-      <c r="L189" s="11"/>
+      <c r="L189" s="9"/>
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
     </row>
     <row r="190" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C190" s="3"/>
-      <c r="H190" s="11"/>
-      <c r="J190" s="55"/>
+      <c r="H190" s="9"/>
+      <c r="J190" s="52"/>
       <c r="K190" s="4"/>
-      <c r="L190" s="11"/>
+      <c r="L190" s="9"/>
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
     </row>
     <row r="191" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C191" s="3"/>
-      <c r="H191" s="11"/>
-      <c r="J191" s="55"/>
+      <c r="H191" s="9"/>
+      <c r="J191" s="52"/>
       <c r="K191" s="4"/>
-      <c r="L191" s="11"/>
+      <c r="L191" s="9"/>
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
     </row>
     <row r="192" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C192" s="3"/>
-      <c r="H192" s="11"/>
-      <c r="J192" s="55"/>
+      <c r="H192" s="9"/>
+      <c r="J192" s="52"/>
       <c r="K192" s="4"/>
-      <c r="L192" s="11"/>
+      <c r="L192" s="9"/>
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
     </row>
     <row r="193" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C193" s="3"/>
-      <c r="H193" s="11"/>
-      <c r="J193" s="55"/>
+      <c r="H193" s="9"/>
+      <c r="J193" s="52"/>
       <c r="K193" s="4"/>
-      <c r="L193" s="11"/>
+      <c r="L193" s="9"/>
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
     </row>
     <row r="194" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C194" s="3"/>
-      <c r="H194" s="11"/>
-      <c r="J194" s="55"/>
+      <c r="H194" s="9"/>
+      <c r="J194" s="52"/>
       <c r="K194" s="4"/>
-      <c r="L194" s="11"/>
+      <c r="L194" s="9"/>
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
     </row>
     <row r="195" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C195" s="3"/>
-      <c r="H195" s="11"/>
-      <c r="J195" s="55"/>
+      <c r="H195" s="9"/>
+      <c r="J195" s="52"/>
       <c r="K195" s="4"/>
-      <c r="L195" s="11"/>
+      <c r="L195" s="9"/>
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
     </row>
     <row r="196" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C196" s="3"/>
-      <c r="H196" s="11"/>
-      <c r="J196" s="55"/>
+      <c r="H196" s="9"/>
+      <c r="J196" s="52"/>
       <c r="K196" s="4"/>
-      <c r="L196" s="11"/>
+      <c r="L196" s="9"/>
       <c r="M196" s="4"/>
       <c r="N196" s="4"/>
     </row>
     <row r="197" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C197" s="3"/>
-      <c r="H197" s="11"/>
-      <c r="J197" s="55"/>
+      <c r="H197" s="9"/>
+      <c r="J197" s="52"/>
       <c r="K197" s="4"/>
-      <c r="L197" s="11"/>
+      <c r="L197" s="9"/>
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
     </row>
     <row r="198" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C198" s="3"/>
-      <c r="H198" s="11"/>
-      <c r="J198" s="55"/>
+      <c r="H198" s="9"/>
+      <c r="J198" s="52"/>
       <c r="K198" s="4"/>
-      <c r="L198" s="11"/>
+      <c r="L198" s="9"/>
       <c r="M198" s="4"/>
       <c r="N198" s="4"/>
     </row>
     <row r="199" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C199" s="3"/>
-      <c r="H199" s="11"/>
-      <c r="J199" s="55"/>
+      <c r="H199" s="9"/>
+      <c r="J199" s="52"/>
       <c r="K199" s="4"/>
-      <c r="L199" s="11"/>
+      <c r="L199" s="9"/>
       <c r="M199" s="4"/>
       <c r="N199" s="4"/>
     </row>
     <row r="200" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C200" s="3"/>
-      <c r="H200" s="11"/>
-      <c r="J200" s="55"/>
+      <c r="H200" s="9"/>
+      <c r="J200" s="52"/>
       <c r="K200" s="4"/>
-      <c r="L200" s="11"/>
+      <c r="L200" s="9"/>
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
     </row>
     <row r="201" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C201" s="3"/>
-      <c r="H201" s="11"/>
-      <c r="J201" s="55"/>
+      <c r="H201" s="9"/>
+      <c r="J201" s="52"/>
       <c r="K201" s="4"/>
-      <c r="L201" s="11"/>
+      <c r="L201" s="9"/>
       <c r="M201" s="4"/>
       <c r="N201" s="4"/>
     </row>
     <row r="202" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C202" s="3"/>
-      <c r="H202" s="11"/>
-      <c r="J202" s="55"/>
+      <c r="H202" s="9"/>
+      <c r="J202" s="52"/>
       <c r="K202" s="4"/>
-      <c r="L202" s="11"/>
+      <c r="L202" s="9"/>
       <c r="M202" s="4"/>
       <c r="N202" s="4"/>
     </row>
     <row r="203" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C203" s="3"/>
-      <c r="H203" s="11"/>
-      <c r="J203" s="55"/>
+      <c r="H203" s="9"/>
+      <c r="J203" s="52"/>
       <c r="K203" s="4"/>
-      <c r="L203" s="11"/>
+      <c r="L203" s="9"/>
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
     </row>
     <row r="204" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C204" s="3"/>
-      <c r="H204" s="11"/>
-      <c r="J204" s="55"/>
+      <c r="H204" s="9"/>
+      <c r="J204" s="52"/>
       <c r="K204" s="4"/>
-      <c r="L204" s="11"/>
+      <c r="L204" s="9"/>
       <c r="M204" s="4"/>
       <c r="N204" s="4"/>
     </row>
     <row r="205" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C205" s="3"/>
-      <c r="H205" s="11"/>
-      <c r="J205" s="55"/>
+      <c r="H205" s="9"/>
+      <c r="J205" s="52"/>
       <c r="K205" s="4"/>
-      <c r="L205" s="11"/>
+      <c r="L205" s="9"/>
       <c r="M205" s="4"/>
       <c r="N205" s="4"/>
     </row>
     <row r="206" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C206" s="3"/>
-      <c r="H206" s="11"/>
-      <c r="J206" s="55"/>
+      <c r="H206" s="9"/>
+      <c r="J206" s="52"/>
       <c r="K206" s="4"/>
-      <c r="L206" s="11"/>
+      <c r="L206" s="9"/>
       <c r="M206" s="4"/>
       <c r="N206" s="4"/>
     </row>
     <row r="207" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C207" s="3"/>
-      <c r="H207" s="11"/>
-      <c r="J207" s="55"/>
+      <c r="H207" s="9"/>
+      <c r="J207" s="52"/>
       <c r="K207" s="4"/>
-      <c r="L207" s="11"/>
+      <c r="L207" s="9"/>
       <c r="M207" s="4"/>
       <c r="N207" s="4"/>
     </row>
     <row r="208" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C208" s="3"/>
-      <c r="H208" s="11"/>
-      <c r="J208" s="55"/>
+      <c r="H208" s="9"/>
+      <c r="J208" s="52"/>
       <c r="K208" s="4"/>
-      <c r="L208" s="11"/>
+      <c r="L208" s="9"/>
       <c r="M208" s="4"/>
       <c r="N208" s="4"/>
     </row>
     <row r="209" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C209" s="3"/>
-      <c r="H209" s="11"/>
-      <c r="J209" s="55"/>
+      <c r="H209" s="9"/>
+      <c r="J209" s="52"/>
       <c r="K209" s="4"/>
-      <c r="L209" s="11"/>
+      <c r="L209" s="9"/>
       <c r="M209" s="4"/>
       <c r="N209" s="4"/>
     </row>
     <row r="210" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C210" s="3"/>
-      <c r="H210" s="11"/>
-      <c r="J210" s="55"/>
+      <c r="H210" s="9"/>
+      <c r="J210" s="52"/>
       <c r="K210" s="4"/>
-      <c r="L210" s="11"/>
+      <c r="L210" s="9"/>
       <c r="M210" s="4"/>
       <c r="N210" s="4"/>
     </row>
     <row r="211" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C211" s="3"/>
-      <c r="H211" s="11"/>
-      <c r="J211" s="55"/>
+      <c r="H211" s="9"/>
+      <c r="J211" s="52"/>
       <c r="K211" s="4"/>
-      <c r="L211" s="11"/>
+      <c r="L211" s="9"/>
       <c r="M211" s="4"/>
       <c r="N211" s="4"/>
     </row>
     <row r="212" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C212" s="3"/>
-      <c r="H212" s="11"/>
-      <c r="J212" s="55"/>
+      <c r="H212" s="9"/>
+      <c r="J212" s="52"/>
       <c r="K212" s="4"/>
-      <c r="L212" s="11"/>
+      <c r="L212" s="9"/>
       <c r="M212" s="4"/>
       <c r="N212" s="4"/>
     </row>
     <row r="213" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C213" s="3"/>
-      <c r="H213" s="11"/>
-      <c r="J213" s="55"/>
+      <c r="H213" s="9"/>
+      <c r="J213" s="52"/>
       <c r="K213" s="4"/>
-      <c r="L213" s="11"/>
+      <c r="L213" s="9"/>
       <c r="M213" s="4"/>
       <c r="N213" s="4"/>
     </row>
     <row r="214" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C214" s="3"/>
-      <c r="H214" s="11"/>
-      <c r="J214" s="55"/>
+      <c r="H214" s="9"/>
+      <c r="J214" s="52"/>
       <c r="K214" s="4"/>
-      <c r="L214" s="11"/>
+      <c r="L214" s="9"/>
       <c r="M214" s="4"/>
       <c r="N214" s="4"/>
     </row>
     <row r="215" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C215" s="3"/>
-      <c r="H215" s="11"/>
-      <c r="J215" s="55"/>
+      <c r="H215" s="9"/>
+      <c r="J215" s="52"/>
       <c r="K215" s="4"/>
-      <c r="L215" s="11"/>
+      <c r="L215" s="9"/>
       <c r="M215" s="4"/>
       <c r="N215" s="4"/>
     </row>
     <row r="216" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C216" s="3"/>
-      <c r="H216" s="11"/>
-      <c r="J216" s="55"/>
+      <c r="H216" s="9"/>
+      <c r="J216" s="52"/>
       <c r="K216" s="4"/>
-      <c r="L216" s="11"/>
+      <c r="L216" s="9"/>
       <c r="M216" s="4"/>
       <c r="N216" s="4"/>
     </row>
     <row r="217" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C217" s="3"/>
-      <c r="H217" s="11"/>
-      <c r="J217" s="55"/>
+      <c r="H217" s="9"/>
+      <c r="J217" s="52"/>
       <c r="K217" s="4"/>
-      <c r="L217" s="11"/>
+      <c r="L217" s="9"/>
       <c r="M217" s="4"/>
       <c r="N217" s="4"/>
     </row>
     <row r="218" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C218" s="3"/>
-      <c r="H218" s="11"/>
-      <c r="J218" s="55"/>
+      <c r="H218" s="9"/>
+      <c r="J218" s="52"/>
       <c r="K218" s="4"/>
-      <c r="L218" s="11"/>
+      <c r="L218" s="9"/>
       <c r="M218" s="4"/>
       <c r="N218" s="4"/>
     </row>
     <row r="219" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C219" s="3"/>
-      <c r="H219" s="11"/>
-      <c r="J219" s="55"/>
+      <c r="H219" s="9"/>
+      <c r="J219" s="52"/>
       <c r="K219" s="4"/>
-      <c r="L219" s="11"/>
+      <c r="L219" s="9"/>
       <c r="M219" s="4"/>
       <c r="N219" s="4"/>
     </row>
     <row r="220" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C220" s="3"/>
-      <c r="H220" s="11"/>
-      <c r="J220" s="55"/>
+      <c r="H220" s="9"/>
+      <c r="J220" s="52"/>
       <c r="K220" s="4"/>
-      <c r="L220" s="11"/>
+      <c r="L220" s="9"/>
       <c r="M220" s="4"/>
       <c r="N220" s="4"/>
     </row>
     <row r="221" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C221" s="3"/>
-      <c r="H221" s="11"/>
-      <c r="J221" s="55"/>
+      <c r="H221" s="9"/>
+      <c r="J221" s="52"/>
       <c r="K221" s="4"/>
-      <c r="L221" s="11"/>
+      <c r="L221" s="9"/>
       <c r="M221" s="4"/>
       <c r="N221" s="4"/>
     </row>
     <row r="222" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C222" s="3"/>
-      <c r="H222" s="11"/>
-      <c r="J222" s="55"/>
+      <c r="H222" s="9"/>
+      <c r="J222" s="52"/>
       <c r="K222" s="4"/>
-      <c r="L222" s="11"/>
+      <c r="L222" s="9"/>
       <c r="M222" s="4"/>
       <c r="N222" s="4"/>
     </row>
     <row r="223" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C223" s="3"/>
-      <c r="H223" s="11"/>
-      <c r="J223" s="55"/>
+      <c r="H223" s="9"/>
+      <c r="J223" s="52"/>
       <c r="K223" s="4"/>
-      <c r="L223" s="11"/>
+      <c r="L223" s="9"/>
       <c r="M223" s="4"/>
       <c r="N223" s="4"/>
     </row>
     <row r="224" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C224" s="3"/>
-      <c r="H224" s="11"/>
-      <c r="J224" s="55"/>
+      <c r="H224" s="9"/>
+      <c r="J224" s="52"/>
       <c r="K224" s="4"/>
-      <c r="L224" s="11"/>
+      <c r="L224" s="9"/>
       <c r="M224" s="4"/>
       <c r="N224" s="4"/>
     </row>
     <row r="225" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C225" s="3"/>
-      <c r="H225" s="11"/>
-      <c r="J225" s="55"/>
+      <c r="H225" s="9"/>
+      <c r="J225" s="52"/>
       <c r="K225" s="4"/>
-      <c r="L225" s="11"/>
+      <c r="L225" s="9"/>
       <c r="M225" s="4"/>
       <c r="N225" s="4"/>
     </row>
     <row r="226" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C226" s="3"/>
-      <c r="H226" s="11"/>
-      <c r="J226" s="55"/>
+      <c r="H226" s="9"/>
+      <c r="J226" s="52"/>
       <c r="K226" s="4"/>
-      <c r="L226" s="11"/>
+      <c r="L226" s="9"/>
       <c r="M226" s="4"/>
       <c r="N226" s="4"/>
     </row>
     <row r="227" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C227" s="3"/>
-      <c r="H227" s="11"/>
-      <c r="J227" s="55"/>
+      <c r="H227" s="9"/>
+      <c r="J227" s="52"/>
       <c r="K227" s="4"/>
-      <c r="L227" s="11"/>
+      <c r="L227" s="9"/>
       <c r="M227" s="4"/>
       <c r="N227" s="4"/>
     </row>
     <row r="228" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C228" s="3"/>
-      <c r="H228" s="11"/>
-      <c r="J228" s="55"/>
+      <c r="H228" s="9"/>
+      <c r="J228" s="52"/>
       <c r="K228" s="4"/>
-      <c r="L228" s="11"/>
+      <c r="L228" s="9"/>
       <c r="M228" s="4"/>
       <c r="N228" s="4"/>
     </row>
     <row r="229" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C229" s="3"/>
-      <c r="H229" s="11"/>
-      <c r="J229" s="55"/>
+      <c r="H229" s="9"/>
+      <c r="J229" s="52"/>
       <c r="K229" s="4"/>
-      <c r="L229" s="11"/>
+      <c r="L229" s="9"/>
       <c r="M229" s="4"/>
       <c r="N229" s="4"/>
     </row>
     <row r="230" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C230" s="3"/>
-      <c r="H230" s="11"/>
-      <c r="J230" s="55"/>
+      <c r="H230" s="9"/>
+      <c r="J230" s="52"/>
       <c r="K230" s="4"/>
-      <c r="L230" s="11"/>
+      <c r="L230" s="9"/>
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
     </row>
     <row r="231" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C231" s="3"/>
-      <c r="H231" s="11"/>
-      <c r="J231" s="55"/>
+      <c r="H231" s="9"/>
+      <c r="J231" s="52"/>
       <c r="K231" s="4"/>
-      <c r="L231" s="11"/>
+      <c r="L231" s="9"/>
       <c r="M231" s="4"/>
       <c r="N231" s="4"/>
     </row>
     <row r="232" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C232" s="3"/>
-      <c r="H232" s="11"/>
-      <c r="J232" s="55"/>
+      <c r="H232" s="9"/>
+      <c r="J232" s="52"/>
       <c r="K232" s="4"/>
-      <c r="L232" s="11"/>
+      <c r="L232" s="9"/>
       <c r="M232" s="4"/>
       <c r="N232" s="4"/>
     </row>
     <row r="233" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C233" s="3"/>
-      <c r="H233" s="11"/>
-      <c r="J233" s="55"/>
+      <c r="H233" s="9"/>
+      <c r="J233" s="52"/>
       <c r="K233" s="4"/>
-      <c r="L233" s="11"/>
+      <c r="L233" s="9"/>
       <c r="M233" s="4"/>
       <c r="N233" s="4"/>
     </row>
     <row r="234" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C234" s="3"/>
-      <c r="H234" s="11"/>
-      <c r="J234" s="55"/>
+      <c r="H234" s="9"/>
+      <c r="J234" s="52"/>
       <c r="K234" s="4"/>
-      <c r="L234" s="11"/>
+      <c r="L234" s="9"/>
       <c r="M234" s="4"/>
       <c r="N234" s="4"/>
     </row>
     <row r="235" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C235" s="3"/>
-      <c r="H235" s="11"/>
-      <c r="J235" s="55"/>
+      <c r="H235" s="9"/>
+      <c r="J235" s="52"/>
       <c r="K235" s="4"/>
-      <c r="L235" s="11"/>
+      <c r="L235" s="9"/>
       <c r="M235" s="4"/>
       <c r="N235" s="4"/>
     </row>
     <row r="236" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C236" s="3"/>
-      <c r="H236" s="11"/>
-      <c r="J236" s="55"/>
+      <c r="H236" s="9"/>
+      <c r="J236" s="52"/>
       <c r="K236" s="4"/>
-      <c r="L236" s="11"/>
+      <c r="L236" s="9"/>
       <c r="M236" s="4"/>
       <c r="N236" s="4"/>
     </row>
     <row r="237" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C237" s="3"/>
-      <c r="H237" s="11"/>
-      <c r="J237" s="55"/>
+      <c r="H237" s="9"/>
+      <c r="J237" s="52"/>
       <c r="K237" s="4"/>
-      <c r="L237" s="11"/>
+      <c r="L237" s="9"/>
       <c r="M237" s="4"/>
       <c r="N237" s="4"/>
     </row>
     <row r="238" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C238" s="3"/>
-      <c r="H238" s="11"/>
-      <c r="J238" s="55"/>
+      <c r="H238" s="9"/>
+      <c r="J238" s="52"/>
       <c r="K238" s="4"/>
-      <c r="L238" s="11"/>
+      <c r="L238" s="9"/>
       <c r="M238" s="4"/>
       <c r="N238" s="4"/>
     </row>
     <row r="239" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C239" s="3"/>
-      <c r="H239" s="11"/>
-      <c r="J239" s="55"/>
+      <c r="H239" s="9"/>
+      <c r="J239" s="52"/>
       <c r="K239" s="4"/>
-      <c r="L239" s="11"/>
+      <c r="L239" s="9"/>
       <c r="M239" s="4"/>
       <c r="N239" s="4"/>
     </row>
     <row r="240" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C240" s="3"/>
-      <c r="H240" s="11"/>
-      <c r="J240" s="55"/>
+      <c r="H240" s="9"/>
+      <c r="J240" s="52"/>
       <c r="K240" s="4"/>
-      <c r="L240" s="11"/>
+      <c r="L240" s="9"/>
       <c r="M240" s="4"/>
       <c r="N240" s="4"/>
     </row>
     <row r="241" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C241" s="3"/>
-      <c r="H241" s="11"/>
-      <c r="J241" s="55"/>
+      <c r="H241" s="9"/>
+      <c r="J241" s="52"/>
       <c r="K241" s="4"/>
-      <c r="L241" s="11"/>
+      <c r="L241" s="9"/>
       <c r="M241" s="4"/>
       <c r="N241" s="4"/>
     </row>
     <row r="242" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C242" s="3"/>
-      <c r="H242" s="11"/>
-      <c r="J242" s="55"/>
+      <c r="H242" s="9"/>
+      <c r="J242" s="52"/>
       <c r="K242" s="4"/>
-      <c r="L242" s="11"/>
+      <c r="L242" s="9"/>
       <c r="M242" s="4"/>
       <c r="N242" s="4"/>
     </row>
     <row r="243" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C243" s="3"/>
-      <c r="H243" s="11"/>
-      <c r="J243" s="55"/>
+      <c r="H243" s="9"/>
+      <c r="J243" s="52"/>
       <c r="K243" s="4"/>
-      <c r="L243" s="11"/>
+      <c r="L243" s="9"/>
       <c r="M243" s="4"/>
       <c r="N243" s="4"/>
     </row>
     <row r="244" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C244" s="3"/>
-      <c r="H244" s="11"/>
-      <c r="J244" s="55"/>
+      <c r="H244" s="9"/>
+      <c r="J244" s="52"/>
       <c r="K244" s="4"/>
-      <c r="L244" s="11"/>
+      <c r="L244" s="9"/>
       <c r="M244" s="4"/>
       <c r="N244" s="4"/>
     </row>
     <row r="245" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C245" s="3"/>
-      <c r="H245" s="11"/>
-      <c r="J245" s="55"/>
+      <c r="H245" s="9"/>
+      <c r="J245" s="52"/>
       <c r="K245" s="4"/>
-      <c r="L245" s="11"/>
+      <c r="L245" s="9"/>
       <c r="M245" s="4"/>
       <c r="N245" s="4"/>
     </row>
     <row r="246" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C246" s="3"/>
-      <c r="H246" s="11"/>
-      <c r="J246" s="55"/>
+      <c r="H246" s="9"/>
+      <c r="J246" s="52"/>
       <c r="K246" s="4"/>
-      <c r="L246" s="11"/>
+      <c r="L246" s="9"/>
       <c r="M246" s="4"/>
       <c r="N246" s="4"/>
     </row>
     <row r="247" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C247" s="3"/>
-      <c r="H247" s="11"/>
-      <c r="J247" s="55"/>
+      <c r="H247" s="9"/>
+      <c r="J247" s="52"/>
       <c r="K247" s="4"/>
-      <c r="L247" s="11"/>
+      <c r="L247" s="9"/>
       <c r="M247" s="4"/>
       <c r="N247" s="4"/>
     </row>
     <row r="248" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C248" s="3"/>
-      <c r="H248" s="11"/>
-      <c r="J248" s="55"/>
+      <c r="H248" s="9"/>
+      <c r="J248" s="52"/>
       <c r="K248" s="4"/>
-      <c r="L248" s="11"/>
+      <c r="L248" s="9"/>
       <c r="M248" s="4"/>
       <c r="N248" s="4"/>
     </row>
     <row r="249" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C249" s="3"/>
-      <c r="H249" s="11"/>
-      <c r="J249" s="55"/>
+      <c r="H249" s="9"/>
+      <c r="J249" s="52"/>
       <c r="K249" s="4"/>
-      <c r="L249" s="11"/>
+      <c r="L249" s="9"/>
       <c r="M249" s="4"/>
       <c r="N249" s="4"/>
     </row>
     <row r="250" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C250" s="3"/>
-      <c r="H250" s="11"/>
-      <c r="J250" s="55"/>
+      <c r="H250" s="9"/>
+      <c r="J250" s="52"/>
       <c r="K250" s="4"/>
-      <c r="L250" s="11"/>
+      <c r="L250" s="9"/>
       <c r="M250" s="4"/>
       <c r="N250" s="4"/>
     </row>
     <row r="251" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C251" s="3"/>
-      <c r="H251" s="11"/>
-      <c r="J251" s="55"/>
+      <c r="H251" s="9"/>
+      <c r="J251" s="52"/>
       <c r="K251" s="4"/>
-      <c r="L251" s="11"/>
+      <c r="L251" s="9"/>
       <c r="M251" s="4"/>
       <c r="N251" s="4"/>
     </row>
     <row r="252" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C252" s="3"/>
-      <c r="H252" s="11"/>
-      <c r="J252" s="55"/>
+      <c r="H252" s="9"/>
+      <c r="J252" s="52"/>
       <c r="K252" s="4"/>
-      <c r="L252" s="11"/>
+      <c r="L252" s="9"/>
       <c r="M252" s="4"/>
       <c r="N252" s="4"/>
     </row>
     <row r="253" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C253" s="3"/>
-      <c r="H253" s="11"/>
-      <c r="J253" s="55"/>
+      <c r="H253" s="9"/>
+      <c r="J253" s="52"/>
       <c r="K253" s="4"/>
-      <c r="L253" s="11"/>
+      <c r="L253" s="9"/>
       <c r="M253" s="4"/>
       <c r="N253" s="4"/>
     </row>
     <row r="254" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C254" s="3"/>
-      <c r="H254" s="11"/>
-      <c r="J254" s="55"/>
+      <c r="H254" s="9"/>
+      <c r="J254" s="52"/>
       <c r="K254" s="4"/>
-      <c r="L254" s="11"/>
+      <c r="L254" s="9"/>
       <c r="M254" s="4"/>
       <c r="N254" s="4"/>
     </row>
     <row r="255" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C255" s="3"/>
-      <c r="H255" s="11"/>
-      <c r="J255" s="55"/>
+      <c r="H255" s="9"/>
+      <c r="J255" s="52"/>
       <c r="K255" s="4"/>
-      <c r="L255" s="11"/>
+      <c r="L255" s="9"/>
       <c r="M255" s="4"/>
       <c r="N255" s="4"/>
     </row>
     <row r="256" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C256" s="3"/>
-      <c r="H256" s="11"/>
-      <c r="J256" s="55"/>
+      <c r="H256" s="9"/>
+      <c r="J256" s="52"/>
       <c r="K256" s="4"/>
-      <c r="L256" s="11"/>
+      <c r="L256" s="9"/>
       <c r="M256" s="4"/>
       <c r="N256" s="4"/>
     </row>
     <row r="257" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C257" s="3"/>
-      <c r="H257" s="11"/>
-      <c r="J257" s="55"/>
+      <c r="H257" s="9"/>
+      <c r="J257" s="52"/>
       <c r="K257" s="4"/>
-      <c r="L257" s="11"/>
+      <c r="L257" s="9"/>
       <c r="M257" s="4"/>
       <c r="N257" s="4"/>
     </row>
     <row r="258" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C258" s="3"/>
-      <c r="H258" s="11"/>
-      <c r="J258" s="55"/>
+      <c r="H258" s="9"/>
+      <c r="J258" s="52"/>
       <c r="K258" s="4"/>
-      <c r="L258" s="11"/>
+      <c r="L258" s="9"/>
       <c r="M258" s="4"/>
       <c r="N258" s="4"/>
     </row>
     <row r="259" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C259" s="3"/>
-      <c r="H259" s="11"/>
-      <c r="J259" s="55"/>
+      <c r="H259" s="9"/>
+      <c r="J259" s="52"/>
       <c r="K259" s="4"/>
-      <c r="L259" s="11"/>
+      <c r="L259" s="9"/>
       <c r="M259" s="4"/>
       <c r="N259" s="4"/>
     </row>
     <row r="260" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C260" s="3"/>
-      <c r="H260" s="11"/>
-      <c r="J260" s="55"/>
+      <c r="H260" s="9"/>
+      <c r="J260" s="52"/>
       <c r="K260" s="4"/>
-      <c r="L260" s="11"/>
+      <c r="L260" s="9"/>
       <c r="M260" s="4"/>
       <c r="N260" s="4"/>
     </row>
     <row r="261" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C261" s="3"/>
-      <c r="H261" s="11"/>
-      <c r="J261" s="55"/>
+      <c r="H261" s="9"/>
+      <c r="J261" s="52"/>
       <c r="K261" s="4"/>
-      <c r="L261" s="11"/>
+      <c r="L261" s="9"/>
       <c r="M261" s="4"/>
       <c r="N261" s="4"/>
     </row>
     <row r="262" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C262" s="3"/>
-      <c r="H262" s="11"/>
-      <c r="J262" s="55"/>
+      <c r="H262" s="9"/>
+      <c r="J262" s="52"/>
       <c r="K262" s="4"/>
-      <c r="L262" s="11"/>
+      <c r="L262" s="9"/>
       <c r="M262" s="4"/>
       <c r="N262" s="4"/>
     </row>
     <row r="263" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C263" s="3"/>
-      <c r="H263" s="11"/>
-      <c r="J263" s="55"/>
+      <c r="H263" s="9"/>
+      <c r="J263" s="52"/>
       <c r="K263" s="4"/>
-      <c r="L263" s="11"/>
+      <c r="L263" s="9"/>
       <c r="M263" s="4"/>
       <c r="N263" s="4"/>
     </row>
     <row r="264" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C264" s="3"/>
-      <c r="H264" s="11"/>
-      <c r="J264" s="55"/>
+      <c r="H264" s="9"/>
+      <c r="J264" s="52"/>
       <c r="K264" s="4"/>
-      <c r="L264" s="11"/>
+      <c r="L264" s="9"/>
       <c r="M264" s="4"/>
       <c r="N264" s="4"/>
     </row>
     <row r="265" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C265" s="3"/>
-      <c r="H265" s="11"/>
-      <c r="J265" s="55"/>
+      <c r="H265" s="9"/>
+      <c r="J265" s="52"/>
       <c r="K265" s="4"/>
-      <c r="L265" s="11"/>
+      <c r="L265" s="9"/>
       <c r="M265" s="4"/>
       <c r="N265" s="4"/>
     </row>
     <row r="266" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C266" s="3"/>
-      <c r="H266" s="11"/>
-      <c r="J266" s="55"/>
+      <c r="H266" s="9"/>
+      <c r="J266" s="52"/>
       <c r="K266" s="4"/>
-      <c r="L266" s="11"/>
+      <c r="L266" s="9"/>
       <c r="M266" s="4"/>
       <c r="N266" s="4"/>
     </row>
     <row r="267" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C267" s="3"/>
-      <c r="H267" s="11"/>
-      <c r="J267" s="55"/>
+      <c r="H267" s="9"/>
+      <c r="J267" s="52"/>
       <c r="K267" s="4"/>
-      <c r="L267" s="11"/>
+      <c r="L267" s="9"/>
       <c r="M267" s="4"/>
       <c r="N267" s="4"/>
     </row>
     <row r="268" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C268" s="3"/>
-      <c r="H268" s="11"/>
-      <c r="J268" s="55"/>
+      <c r="H268" s="9"/>
+      <c r="J268" s="52"/>
       <c r="K268" s="4"/>
-      <c r="L268" s="11"/>
+      <c r="L268" s="9"/>
       <c r="M268" s="4"/>
       <c r="N268" s="4"/>
     </row>
     <row r="269" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C269" s="3"/>
-      <c r="H269" s="11"/>
-      <c r="J269" s="55"/>
+      <c r="H269" s="9"/>
+      <c r="J269" s="52"/>
       <c r="K269" s="4"/>
-      <c r="L269" s="11"/>
+      <c r="L269" s="9"/>
       <c r="M269" s="4"/>
       <c r="N269" s="4"/>
     </row>
     <row r="270" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C270" s="3"/>
-      <c r="H270" s="11"/>
-      <c r="J270" s="55"/>
+      <c r="H270" s="9"/>
+      <c r="J270" s="52"/>
       <c r="K270" s="4"/>
-      <c r="L270" s="11"/>
+      <c r="L270" s="9"/>
       <c r="M270" s="4"/>
       <c r="N270" s="4"/>
     </row>
     <row r="271" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C271" s="3"/>
-      <c r="H271" s="11"/>
-      <c r="J271" s="55"/>
+      <c r="H271" s="9"/>
+      <c r="J271" s="52"/>
       <c r="K271" s="4"/>
-      <c r="L271" s="11"/>
+      <c r="L271" s="9"/>
       <c r="M271" s="4"/>
       <c r="N271" s="4"/>
     </row>
     <row r="272" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C272" s="3"/>
-      <c r="H272" s="11"/>
-      <c r="J272" s="55"/>
+      <c r="H272" s="9"/>
+      <c r="J272" s="52"/>
       <c r="K272" s="4"/>
-      <c r="L272" s="11"/>
+      <c r="L272" s="9"/>
       <c r="M272" s="4"/>
       <c r="N272" s="4"/>
     </row>
     <row r="273" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C273" s="3"/>
-      <c r="H273" s="11"/>
-      <c r="J273" s="55"/>
+      <c r="H273" s="9"/>
+      <c r="J273" s="52"/>
       <c r="K273" s="4"/>
-      <c r="L273" s="11"/>
+      <c r="L273" s="9"/>
       <c r="M273" s="4"/>
       <c r="N273" s="4"/>
     </row>
     <row r="274" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C274" s="3"/>
-      <c r="H274" s="11"/>
-      <c r="J274" s="55"/>
+      <c r="H274" s="9"/>
+      <c r="J274" s="52"/>
       <c r="K274" s="4"/>
-      <c r="L274" s="11"/>
+      <c r="L274" s="9"/>
       <c r="M274" s="4"/>
       <c r="N274" s="4"/>
     </row>
     <row r="275" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C275" s="3"/>
-      <c r="H275" s="11"/>
-      <c r="J275" s="55"/>
+      <c r="H275" s="9"/>
+      <c r="J275" s="52"/>
       <c r="K275" s="4"/>
-      <c r="L275" s="11"/>
+      <c r="L275" s="9"/>
       <c r="M275" s="4"/>
       <c r="N275" s="4"/>
     </row>
     <row r="276" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C276" s="3"/>
-      <c r="H276" s="11"/>
-      <c r="J276" s="55"/>
+      <c r="H276" s="9"/>
+      <c r="J276" s="52"/>
       <c r="K276" s="4"/>
-      <c r="L276" s="11"/>
+      <c r="L276" s="9"/>
       <c r="M276" s="4"/>
       <c r="N276" s="4"/>
     </row>
@@ -15821,1235 +15991,1235 @@
   </sheetPr>
   <dimension ref="A1:Q276"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.88671875" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="56" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.44140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" style="32" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="32"/>
+    <col min="1" max="1" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="28">
         <v>43952</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <v>100000</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="23">
         <v>50</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="23">
         <v>10</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="23">
         <v>2</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="23">
         <v>4</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="51">
         <v>3</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="23">
         <v>14</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="23">
         <v>20</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="23">
         <v>3</v>
       </c>
-      <c r="L2" s="54">
+      <c r="L2" s="51">
         <v>3</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="24">
         <v>0.03</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="25">
         <v>2</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="24">
         <v>0.7</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="24">
         <v>0.3</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="23">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="32"/>
-      <c r="H3" s="11"/>
-      <c r="L3" s="55"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="29"/>
+      <c r="H3" s="9"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H4" s="11"/>
-      <c r="L4" s="55"/>
+      <c r="H4" s="9"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H5" s="11"/>
-      <c r="L5" s="55"/>
+      <c r="H5" s="9"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H6" s="11"/>
-      <c r="L6" s="55"/>
+      <c r="H6" s="9"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H7" s="11"/>
-      <c r="L7" s="55"/>
+      <c r="H7" s="9"/>
+      <c r="L7" s="52"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H8" s="11"/>
-      <c r="L8" s="55"/>
+      <c r="H8" s="9"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H9" s="11"/>
-      <c r="L9" s="55"/>
+      <c r="H9" s="9"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H10" s="11"/>
-      <c r="L10" s="55"/>
+      <c r="H10" s="9"/>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H11" s="11"/>
-      <c r="L11" s="55"/>
+      <c r="H11" s="9"/>
+      <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H12" s="11"/>
-      <c r="L12" s="55"/>
+      <c r="H12" s="9"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" s="11"/>
-      <c r="L13" s="55"/>
+      <c r="H13" s="9"/>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H14" s="11"/>
-      <c r="L14" s="55"/>
+      <c r="H14" s="9"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H15" s="11"/>
-      <c r="L15" s="55"/>
+      <c r="H15" s="9"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H16" s="11"/>
-      <c r="L16" s="55"/>
+      <c r="H16" s="9"/>
+      <c r="L16" s="52"/>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H17" s="11"/>
-      <c r="L17" s="55"/>
+      <c r="H17" s="9"/>
+      <c r="L17" s="52"/>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H18" s="11"/>
-      <c r="L18" s="55"/>
+      <c r="H18" s="9"/>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H19" s="11"/>
-      <c r="L19" s="55"/>
+      <c r="H19" s="9"/>
+      <c r="L19" s="52"/>
     </row>
     <row r="20" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H20" s="11"/>
-      <c r="L20" s="55"/>
+      <c r="H20" s="9"/>
+      <c r="L20" s="52"/>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H21" s="11"/>
-      <c r="L21" s="55"/>
+      <c r="H21" s="9"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H22" s="11"/>
-      <c r="L22" s="55"/>
+      <c r="H22" s="9"/>
+      <c r="L22" s="52"/>
     </row>
     <row r="23" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H23" s="11"/>
-      <c r="L23" s="55"/>
+      <c r="H23" s="9"/>
+      <c r="L23" s="52"/>
     </row>
     <row r="24" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H24" s="11"/>
-      <c r="L24" s="55"/>
+      <c r="H24" s="9"/>
+      <c r="L24" s="52"/>
     </row>
     <row r="25" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H25" s="11"/>
-      <c r="L25" s="55"/>
+      <c r="H25" s="9"/>
+      <c r="L25" s="52"/>
     </row>
     <row r="26" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H26" s="11"/>
-      <c r="L26" s="55"/>
+      <c r="H26" s="9"/>
+      <c r="L26" s="52"/>
     </row>
     <row r="27" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H27" s="11"/>
-      <c r="L27" s="55"/>
+      <c r="H27" s="9"/>
+      <c r="L27" s="52"/>
     </row>
     <row r="28" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H28" s="11"/>
-      <c r="L28" s="55"/>
+      <c r="H28" s="9"/>
+      <c r="L28" s="52"/>
     </row>
     <row r="29" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H29" s="11"/>
-      <c r="L29" s="55"/>
+      <c r="H29" s="9"/>
+      <c r="L29" s="52"/>
     </row>
     <row r="30" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H30" s="11"/>
-      <c r="L30" s="55"/>
+      <c r="H30" s="9"/>
+      <c r="L30" s="52"/>
     </row>
     <row r="31" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H31" s="11"/>
-      <c r="L31" s="55"/>
+      <c r="H31" s="9"/>
+      <c r="L31" s="52"/>
     </row>
     <row r="32" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H32" s="11"/>
-      <c r="L32" s="55"/>
+      <c r="H32" s="9"/>
+      <c r="L32" s="52"/>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H33" s="11"/>
-      <c r="L33" s="55"/>
+      <c r="H33" s="9"/>
+      <c r="L33" s="52"/>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H34" s="11"/>
-      <c r="L34" s="55"/>
+      <c r="H34" s="9"/>
+      <c r="L34" s="52"/>
     </row>
     <row r="35" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H35" s="11"/>
-      <c r="L35" s="55"/>
+      <c r="H35" s="9"/>
+      <c r="L35" s="52"/>
     </row>
     <row r="36" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H36" s="11"/>
-      <c r="L36" s="55"/>
+      <c r="H36" s="9"/>
+      <c r="L36" s="52"/>
     </row>
     <row r="37" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H37" s="11"/>
-      <c r="L37" s="55"/>
+      <c r="H37" s="9"/>
+      <c r="L37" s="52"/>
     </row>
     <row r="38" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H38" s="11"/>
-      <c r="L38" s="55"/>
+      <c r="H38" s="9"/>
+      <c r="L38" s="52"/>
     </row>
     <row r="39" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H39" s="11"/>
-      <c r="L39" s="55"/>
+      <c r="H39" s="9"/>
+      <c r="L39" s="52"/>
     </row>
     <row r="40" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H40" s="11"/>
-      <c r="L40" s="55"/>
+      <c r="H40" s="9"/>
+      <c r="L40" s="52"/>
     </row>
     <row r="41" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H41" s="11"/>
-      <c r="L41" s="55"/>
+      <c r="H41" s="9"/>
+      <c r="L41" s="52"/>
     </row>
     <row r="42" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H42" s="11"/>
-      <c r="L42" s="55"/>
+      <c r="H42" s="9"/>
+      <c r="L42" s="52"/>
     </row>
     <row r="43" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H43" s="11"/>
-      <c r="L43" s="55"/>
+      <c r="H43" s="9"/>
+      <c r="L43" s="52"/>
     </row>
     <row r="44" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H44" s="11"/>
-      <c r="L44" s="55"/>
+      <c r="H44" s="9"/>
+      <c r="L44" s="52"/>
     </row>
     <row r="45" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H45" s="11"/>
-      <c r="L45" s="55"/>
+      <c r="H45" s="9"/>
+      <c r="L45" s="52"/>
     </row>
     <row r="46" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H46" s="11"/>
-      <c r="L46" s="55"/>
+      <c r="H46" s="9"/>
+      <c r="L46" s="52"/>
     </row>
     <row r="47" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H47" s="11"/>
-      <c r="L47" s="55"/>
+      <c r="H47" s="9"/>
+      <c r="L47" s="52"/>
     </row>
     <row r="48" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H48" s="11"/>
-      <c r="L48" s="55"/>
+      <c r="H48" s="9"/>
+      <c r="L48" s="52"/>
     </row>
     <row r="49" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H49" s="11"/>
-      <c r="L49" s="55"/>
+      <c r="H49" s="9"/>
+      <c r="L49" s="52"/>
     </row>
     <row r="50" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H50" s="11"/>
-      <c r="L50" s="55"/>
+      <c r="H50" s="9"/>
+      <c r="L50" s="52"/>
     </row>
     <row r="51" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H51" s="11"/>
-      <c r="L51" s="55"/>
+      <c r="H51" s="9"/>
+      <c r="L51" s="52"/>
     </row>
     <row r="52" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H52" s="11"/>
-      <c r="L52" s="55"/>
+      <c r="H52" s="9"/>
+      <c r="L52" s="52"/>
     </row>
     <row r="53" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H53" s="11"/>
-      <c r="L53" s="55"/>
+      <c r="H53" s="9"/>
+      <c r="L53" s="52"/>
     </row>
     <row r="54" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H54" s="11"/>
-      <c r="L54" s="55"/>
+      <c r="H54" s="9"/>
+      <c r="L54" s="52"/>
     </row>
     <row r="55" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H55" s="11"/>
-      <c r="L55" s="55"/>
+      <c r="H55" s="9"/>
+      <c r="L55" s="52"/>
     </row>
     <row r="56" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H56" s="11"/>
-      <c r="L56" s="55"/>
+      <c r="H56" s="9"/>
+      <c r="L56" s="52"/>
     </row>
     <row r="57" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H57" s="11"/>
-      <c r="L57" s="55"/>
+      <c r="H57" s="9"/>
+      <c r="L57" s="52"/>
     </row>
     <row r="58" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H58" s="11"/>
-      <c r="L58" s="55"/>
+      <c r="H58" s="9"/>
+      <c r="L58" s="52"/>
     </row>
     <row r="59" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H59" s="11"/>
-      <c r="L59" s="55"/>
+      <c r="H59" s="9"/>
+      <c r="L59" s="52"/>
     </row>
     <row r="60" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H60" s="11"/>
-      <c r="L60" s="55"/>
+      <c r="H60" s="9"/>
+      <c r="L60" s="52"/>
     </row>
     <row r="61" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H61" s="11"/>
-      <c r="L61" s="55"/>
+      <c r="H61" s="9"/>
+      <c r="L61" s="52"/>
     </row>
     <row r="62" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H62" s="11"/>
-      <c r="L62" s="55"/>
+      <c r="H62" s="9"/>
+      <c r="L62" s="52"/>
     </row>
     <row r="63" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H63" s="11"/>
-      <c r="L63" s="55"/>
+      <c r="H63" s="9"/>
+      <c r="L63" s="52"/>
     </row>
     <row r="64" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H64" s="11"/>
-      <c r="L64" s="55"/>
+      <c r="H64" s="9"/>
+      <c r="L64" s="52"/>
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H65" s="11"/>
-      <c r="L65" s="55"/>
+      <c r="H65" s="9"/>
+      <c r="L65" s="52"/>
     </row>
     <row r="66" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H66" s="11"/>
-      <c r="L66" s="55"/>
+      <c r="H66" s="9"/>
+      <c r="L66" s="52"/>
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H67" s="11"/>
-      <c r="L67" s="55"/>
+      <c r="H67" s="9"/>
+      <c r="L67" s="52"/>
     </row>
     <row r="68" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H68" s="11"/>
-      <c r="L68" s="55"/>
+      <c r="H68" s="9"/>
+      <c r="L68" s="52"/>
     </row>
     <row r="69" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H69" s="11"/>
-      <c r="L69" s="55"/>
+      <c r="H69" s="9"/>
+      <c r="L69" s="52"/>
     </row>
     <row r="70" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H70" s="11"/>
-      <c r="L70" s="55"/>
+      <c r="H70" s="9"/>
+      <c r="L70" s="52"/>
     </row>
     <row r="71" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H71" s="11"/>
-      <c r="L71" s="55"/>
+      <c r="H71" s="9"/>
+      <c r="L71" s="52"/>
     </row>
     <row r="72" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H72" s="11"/>
-      <c r="L72" s="55"/>
+      <c r="H72" s="9"/>
+      <c r="L72" s="52"/>
     </row>
     <row r="73" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H73" s="11"/>
-      <c r="L73" s="55"/>
+      <c r="H73" s="9"/>
+      <c r="L73" s="52"/>
     </row>
     <row r="74" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H74" s="11"/>
-      <c r="L74" s="55"/>
+      <c r="H74" s="9"/>
+      <c r="L74" s="52"/>
     </row>
     <row r="75" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H75" s="11"/>
-      <c r="L75" s="55"/>
+      <c r="H75" s="9"/>
+      <c r="L75" s="52"/>
     </row>
     <row r="76" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H76" s="11"/>
-      <c r="L76" s="55"/>
+      <c r="H76" s="9"/>
+      <c r="L76" s="52"/>
     </row>
     <row r="77" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H77" s="11"/>
-      <c r="L77" s="55"/>
+      <c r="H77" s="9"/>
+      <c r="L77" s="52"/>
     </row>
     <row r="78" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H78" s="11"/>
-      <c r="L78" s="55"/>
+      <c r="H78" s="9"/>
+      <c r="L78" s="52"/>
     </row>
     <row r="79" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H79" s="11"/>
-      <c r="L79" s="55"/>
+      <c r="H79" s="9"/>
+      <c r="L79" s="52"/>
     </row>
     <row r="80" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H80" s="11"/>
-      <c r="L80" s="55"/>
+      <c r="H80" s="9"/>
+      <c r="L80" s="52"/>
     </row>
     <row r="81" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H81" s="11"/>
-      <c r="L81" s="55"/>
+      <c r="H81" s="9"/>
+      <c r="L81" s="52"/>
     </row>
     <row r="82" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H82" s="11"/>
-      <c r="L82" s="55"/>
+      <c r="H82" s="9"/>
+      <c r="L82" s="52"/>
     </row>
     <row r="83" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H83" s="11"/>
-      <c r="L83" s="55"/>
+      <c r="H83" s="9"/>
+      <c r="L83" s="52"/>
     </row>
     <row r="84" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H84" s="11"/>
-      <c r="L84" s="55"/>
+      <c r="H84" s="9"/>
+      <c r="L84" s="52"/>
     </row>
     <row r="85" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H85" s="11"/>
-      <c r="L85" s="55"/>
+      <c r="H85" s="9"/>
+      <c r="L85" s="52"/>
     </row>
     <row r="86" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H86" s="11"/>
-      <c r="L86" s="55"/>
+      <c r="H86" s="9"/>
+      <c r="L86" s="52"/>
     </row>
     <row r="87" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H87" s="11"/>
-      <c r="L87" s="55"/>
+      <c r="H87" s="9"/>
+      <c r="L87" s="52"/>
     </row>
     <row r="88" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H88" s="11"/>
-      <c r="L88" s="55"/>
+      <c r="H88" s="9"/>
+      <c r="L88" s="52"/>
     </row>
     <row r="89" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H89" s="11"/>
-      <c r="L89" s="55"/>
+      <c r="H89" s="9"/>
+      <c r="L89" s="52"/>
     </row>
     <row r="90" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H90" s="11"/>
-      <c r="L90" s="55"/>
+      <c r="H90" s="9"/>
+      <c r="L90" s="52"/>
     </row>
     <row r="91" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H91" s="11"/>
-      <c r="L91" s="55"/>
+      <c r="H91" s="9"/>
+      <c r="L91" s="52"/>
     </row>
     <row r="92" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H92" s="11"/>
-      <c r="L92" s="55"/>
+      <c r="H92" s="9"/>
+      <c r="L92" s="52"/>
     </row>
     <row r="93" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H93" s="11"/>
-      <c r="L93" s="55"/>
+      <c r="H93" s="9"/>
+      <c r="L93" s="52"/>
     </row>
     <row r="94" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H94" s="11"/>
-      <c r="L94" s="55"/>
+      <c r="H94" s="9"/>
+      <c r="L94" s="52"/>
     </row>
     <row r="95" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H95" s="11"/>
-      <c r="L95" s="55"/>
+      <c r="H95" s="9"/>
+      <c r="L95" s="52"/>
     </row>
     <row r="96" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H96" s="11"/>
-      <c r="L96" s="55"/>
+      <c r="H96" s="9"/>
+      <c r="L96" s="52"/>
     </row>
     <row r="97" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H97" s="11"/>
-      <c r="L97" s="55"/>
+      <c r="H97" s="9"/>
+      <c r="L97" s="52"/>
     </row>
     <row r="98" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H98" s="11"/>
-      <c r="L98" s="55"/>
+      <c r="H98" s="9"/>
+      <c r="L98" s="52"/>
     </row>
     <row r="99" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H99" s="11"/>
-      <c r="L99" s="55"/>
+      <c r="H99" s="9"/>
+      <c r="L99" s="52"/>
     </row>
     <row r="100" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H100" s="11"/>
-      <c r="L100" s="55"/>
+      <c r="H100" s="9"/>
+      <c r="L100" s="52"/>
     </row>
     <row r="101" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H101" s="11"/>
-      <c r="L101" s="55"/>
+      <c r="H101" s="9"/>
+      <c r="L101" s="52"/>
     </row>
     <row r="102" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H102" s="11"/>
-      <c r="L102" s="55"/>
+      <c r="H102" s="9"/>
+      <c r="L102" s="52"/>
     </row>
     <row r="103" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H103" s="11"/>
-      <c r="L103" s="55"/>
+      <c r="H103" s="9"/>
+      <c r="L103" s="52"/>
     </row>
     <row r="104" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H104" s="11"/>
-      <c r="L104" s="55"/>
+      <c r="H104" s="9"/>
+      <c r="L104" s="52"/>
     </row>
     <row r="105" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H105" s="11"/>
-      <c r="L105" s="55"/>
+      <c r="H105" s="9"/>
+      <c r="L105" s="52"/>
     </row>
     <row r="106" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H106" s="11"/>
-      <c r="L106" s="55"/>
+      <c r="H106" s="9"/>
+      <c r="L106" s="52"/>
     </row>
     <row r="107" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H107" s="11"/>
-      <c r="L107" s="55"/>
+      <c r="H107" s="9"/>
+      <c r="L107" s="52"/>
     </row>
     <row r="108" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H108" s="11"/>
-      <c r="L108" s="55"/>
+      <c r="H108" s="9"/>
+      <c r="L108" s="52"/>
     </row>
     <row r="109" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H109" s="11"/>
-      <c r="L109" s="55"/>
+      <c r="H109" s="9"/>
+      <c r="L109" s="52"/>
     </row>
     <row r="110" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H110" s="11"/>
-      <c r="L110" s="55"/>
+      <c r="H110" s="9"/>
+      <c r="L110" s="52"/>
     </row>
     <row r="111" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H111" s="11"/>
-      <c r="L111" s="55"/>
+      <c r="H111" s="9"/>
+      <c r="L111" s="52"/>
     </row>
     <row r="112" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H112" s="11"/>
-      <c r="L112" s="55"/>
+      <c r="H112" s="9"/>
+      <c r="L112" s="52"/>
     </row>
     <row r="113" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H113" s="11"/>
-      <c r="L113" s="55"/>
+      <c r="H113" s="9"/>
+      <c r="L113" s="52"/>
     </row>
     <row r="114" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H114" s="11"/>
-      <c r="L114" s="55"/>
+      <c r="H114" s="9"/>
+      <c r="L114" s="52"/>
     </row>
     <row r="115" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H115" s="11"/>
-      <c r="L115" s="55"/>
+      <c r="H115" s="9"/>
+      <c r="L115" s="52"/>
     </row>
     <row r="116" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H116" s="11"/>
-      <c r="L116" s="55"/>
+      <c r="H116" s="9"/>
+      <c r="L116" s="52"/>
     </row>
     <row r="117" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H117" s="11"/>
-      <c r="L117" s="55"/>
+      <c r="H117" s="9"/>
+      <c r="L117" s="52"/>
     </row>
     <row r="118" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H118" s="11"/>
-      <c r="L118" s="55"/>
+      <c r="H118" s="9"/>
+      <c r="L118" s="52"/>
     </row>
     <row r="119" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H119" s="11"/>
-      <c r="L119" s="55"/>
+      <c r="H119" s="9"/>
+      <c r="L119" s="52"/>
     </row>
     <row r="120" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H120" s="11"/>
-      <c r="L120" s="55"/>
+      <c r="H120" s="9"/>
+      <c r="L120" s="52"/>
     </row>
     <row r="121" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H121" s="11"/>
-      <c r="L121" s="55"/>
+      <c r="H121" s="9"/>
+      <c r="L121" s="52"/>
     </row>
     <row r="122" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H122" s="11"/>
-      <c r="L122" s="55"/>
+      <c r="H122" s="9"/>
+      <c r="L122" s="52"/>
     </row>
     <row r="123" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H123" s="11"/>
-      <c r="L123" s="55"/>
+      <c r="H123" s="9"/>
+      <c r="L123" s="52"/>
     </row>
     <row r="124" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H124" s="11"/>
-      <c r="L124" s="55"/>
+      <c r="H124" s="9"/>
+      <c r="L124" s="52"/>
     </row>
     <row r="125" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H125" s="11"/>
-      <c r="L125" s="55"/>
+      <c r="H125" s="9"/>
+      <c r="L125" s="52"/>
     </row>
     <row r="126" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H126" s="11"/>
-      <c r="L126" s="55"/>
+      <c r="H126" s="9"/>
+      <c r="L126" s="52"/>
     </row>
     <row r="127" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H127" s="11"/>
-      <c r="L127" s="55"/>
+      <c r="H127" s="9"/>
+      <c r="L127" s="52"/>
     </row>
     <row r="128" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H128" s="11"/>
-      <c r="L128" s="55"/>
+      <c r="H128" s="9"/>
+      <c r="L128" s="52"/>
     </row>
     <row r="129" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H129" s="11"/>
-      <c r="L129" s="55"/>
+      <c r="H129" s="9"/>
+      <c r="L129" s="52"/>
     </row>
     <row r="130" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H130" s="11"/>
-      <c r="L130" s="55"/>
+      <c r="H130" s="9"/>
+      <c r="L130" s="52"/>
     </row>
     <row r="131" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H131" s="11"/>
-      <c r="L131" s="55"/>
+      <c r="H131" s="9"/>
+      <c r="L131" s="52"/>
     </row>
     <row r="132" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H132" s="11"/>
-      <c r="L132" s="55"/>
+      <c r="H132" s="9"/>
+      <c r="L132" s="52"/>
     </row>
     <row r="133" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H133" s="11"/>
-      <c r="L133" s="55"/>
+      <c r="H133" s="9"/>
+      <c r="L133" s="52"/>
     </row>
     <row r="134" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H134" s="11"/>
-      <c r="L134" s="55"/>
+      <c r="H134" s="9"/>
+      <c r="L134" s="52"/>
     </row>
     <row r="135" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H135" s="11"/>
-      <c r="L135" s="55"/>
+      <c r="H135" s="9"/>
+      <c r="L135" s="52"/>
     </row>
     <row r="136" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H136" s="11"/>
-      <c r="L136" s="55"/>
+      <c r="H136" s="9"/>
+      <c r="L136" s="52"/>
     </row>
     <row r="137" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H137" s="11"/>
-      <c r="L137" s="55"/>
+      <c r="H137" s="9"/>
+      <c r="L137" s="52"/>
     </row>
     <row r="138" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H138" s="11"/>
-      <c r="L138" s="55"/>
+      <c r="H138" s="9"/>
+      <c r="L138" s="52"/>
     </row>
     <row r="139" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H139" s="11"/>
-      <c r="L139" s="55"/>
+      <c r="H139" s="9"/>
+      <c r="L139" s="52"/>
     </row>
     <row r="140" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H140" s="11"/>
-      <c r="L140" s="55"/>
+      <c r="H140" s="9"/>
+      <c r="L140" s="52"/>
     </row>
     <row r="141" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H141" s="11"/>
-      <c r="L141" s="55"/>
+      <c r="H141" s="9"/>
+      <c r="L141" s="52"/>
     </row>
     <row r="142" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H142" s="11"/>
-      <c r="L142" s="55"/>
+      <c r="H142" s="9"/>
+      <c r="L142" s="52"/>
     </row>
     <row r="143" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H143" s="11"/>
-      <c r="L143" s="55"/>
+      <c r="H143" s="9"/>
+      <c r="L143" s="52"/>
     </row>
     <row r="144" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H144" s="11"/>
-      <c r="L144" s="55"/>
+      <c r="H144" s="9"/>
+      <c r="L144" s="52"/>
     </row>
     <row r="145" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H145" s="11"/>
-      <c r="L145" s="55"/>
+      <c r="H145" s="9"/>
+      <c r="L145" s="52"/>
     </row>
     <row r="146" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H146" s="11"/>
-      <c r="L146" s="55"/>
+      <c r="H146" s="9"/>
+      <c r="L146" s="52"/>
     </row>
     <row r="147" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H147" s="11"/>
-      <c r="L147" s="55"/>
+      <c r="H147" s="9"/>
+      <c r="L147" s="52"/>
     </row>
     <row r="148" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H148" s="11"/>
-      <c r="L148" s="55"/>
+      <c r="H148" s="9"/>
+      <c r="L148" s="52"/>
     </row>
     <row r="149" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H149" s="11"/>
-      <c r="L149" s="55"/>
+      <c r="H149" s="9"/>
+      <c r="L149" s="52"/>
     </row>
     <row r="150" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H150" s="11"/>
-      <c r="L150" s="55"/>
+      <c r="H150" s="9"/>
+      <c r="L150" s="52"/>
     </row>
     <row r="151" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H151" s="11"/>
-      <c r="L151" s="55"/>
+      <c r="H151" s="9"/>
+      <c r="L151" s="52"/>
     </row>
     <row r="152" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H152" s="11"/>
-      <c r="L152" s="55"/>
+      <c r="H152" s="9"/>
+      <c r="L152" s="52"/>
     </row>
     <row r="153" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H153" s="11"/>
-      <c r="L153" s="55"/>
+      <c r="H153" s="9"/>
+      <c r="L153" s="52"/>
     </row>
     <row r="154" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H154" s="11"/>
-      <c r="L154" s="55"/>
+      <c r="H154" s="9"/>
+      <c r="L154" s="52"/>
     </row>
     <row r="155" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H155" s="11"/>
-      <c r="L155" s="55"/>
+      <c r="H155" s="9"/>
+      <c r="L155" s="52"/>
     </row>
     <row r="156" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H156" s="11"/>
-      <c r="L156" s="55"/>
+      <c r="H156" s="9"/>
+      <c r="L156" s="52"/>
     </row>
     <row r="157" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H157" s="11"/>
-      <c r="L157" s="55"/>
+      <c r="H157" s="9"/>
+      <c r="L157" s="52"/>
     </row>
     <row r="158" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H158" s="11"/>
-      <c r="L158" s="55"/>
+      <c r="H158" s="9"/>
+      <c r="L158" s="52"/>
     </row>
     <row r="159" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H159" s="11"/>
-      <c r="L159" s="55"/>
+      <c r="H159" s="9"/>
+      <c r="L159" s="52"/>
     </row>
     <row r="160" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H160" s="11"/>
-      <c r="L160" s="55"/>
+      <c r="H160" s="9"/>
+      <c r="L160" s="52"/>
     </row>
     <row r="161" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H161" s="11"/>
-      <c r="L161" s="55"/>
+      <c r="H161" s="9"/>
+      <c r="L161" s="52"/>
     </row>
     <row r="162" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H162" s="11"/>
-      <c r="L162" s="55"/>
+      <c r="H162" s="9"/>
+      <c r="L162" s="52"/>
     </row>
     <row r="163" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H163" s="11"/>
-      <c r="L163" s="55"/>
+      <c r="H163" s="9"/>
+      <c r="L163" s="52"/>
     </row>
     <row r="164" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H164" s="11"/>
-      <c r="L164" s="55"/>
+      <c r="H164" s="9"/>
+      <c r="L164" s="52"/>
     </row>
     <row r="165" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H165" s="11"/>
-      <c r="L165" s="55"/>
+      <c r="H165" s="9"/>
+      <c r="L165" s="52"/>
     </row>
     <row r="166" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H166" s="11"/>
-      <c r="L166" s="55"/>
+      <c r="H166" s="9"/>
+      <c r="L166" s="52"/>
     </row>
     <row r="167" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H167" s="11"/>
-      <c r="L167" s="55"/>
+      <c r="H167" s="9"/>
+      <c r="L167" s="52"/>
     </row>
     <row r="168" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H168" s="11"/>
-      <c r="L168" s="55"/>
+      <c r="H168" s="9"/>
+      <c r="L168" s="52"/>
     </row>
     <row r="169" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H169" s="11"/>
-      <c r="L169" s="55"/>
+      <c r="H169" s="9"/>
+      <c r="L169" s="52"/>
     </row>
     <row r="170" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H170" s="11"/>
-      <c r="L170" s="55"/>
+      <c r="H170" s="9"/>
+      <c r="L170" s="52"/>
     </row>
     <row r="171" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H171" s="11"/>
-      <c r="L171" s="55"/>
+      <c r="H171" s="9"/>
+      <c r="L171" s="52"/>
     </row>
     <row r="172" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H172" s="11"/>
-      <c r="L172" s="55"/>
+      <c r="H172" s="9"/>
+      <c r="L172" s="52"/>
     </row>
     <row r="173" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H173" s="11"/>
-      <c r="L173" s="55"/>
+      <c r="H173" s="9"/>
+      <c r="L173" s="52"/>
     </row>
     <row r="174" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H174" s="11"/>
-      <c r="L174" s="55"/>
+      <c r="H174" s="9"/>
+      <c r="L174" s="52"/>
     </row>
     <row r="175" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H175" s="11"/>
-      <c r="L175" s="55"/>
+      <c r="H175" s="9"/>
+      <c r="L175" s="52"/>
     </row>
     <row r="176" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H176" s="11"/>
-      <c r="L176" s="55"/>
+      <c r="H176" s="9"/>
+      <c r="L176" s="52"/>
     </row>
     <row r="177" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H177" s="11"/>
-      <c r="L177" s="55"/>
+      <c r="H177" s="9"/>
+      <c r="L177" s="52"/>
     </row>
     <row r="178" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H178" s="11"/>
-      <c r="L178" s="55"/>
+      <c r="H178" s="9"/>
+      <c r="L178" s="52"/>
     </row>
     <row r="179" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H179" s="11"/>
-      <c r="L179" s="55"/>
+      <c r="H179" s="9"/>
+      <c r="L179" s="52"/>
     </row>
     <row r="180" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H180" s="11"/>
-      <c r="L180" s="55"/>
+      <c r="H180" s="9"/>
+      <c r="L180" s="52"/>
     </row>
     <row r="181" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H181" s="11"/>
-      <c r="L181" s="55"/>
+      <c r="H181" s="9"/>
+      <c r="L181" s="52"/>
     </row>
     <row r="182" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H182" s="11"/>
-      <c r="L182" s="55"/>
+      <c r="H182" s="9"/>
+      <c r="L182" s="52"/>
     </row>
     <row r="183" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H183" s="11"/>
-      <c r="L183" s="55"/>
+      <c r="H183" s="9"/>
+      <c r="L183" s="52"/>
     </row>
     <row r="184" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H184" s="11"/>
-      <c r="L184" s="55"/>
+      <c r="H184" s="9"/>
+      <c r="L184" s="52"/>
     </row>
     <row r="185" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H185" s="11"/>
-      <c r="L185" s="55"/>
+      <c r="H185" s="9"/>
+      <c r="L185" s="52"/>
     </row>
     <row r="186" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H186" s="11"/>
-      <c r="L186" s="55"/>
+      <c r="H186" s="9"/>
+      <c r="L186" s="52"/>
     </row>
     <row r="187" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H187" s="11"/>
-      <c r="L187" s="55"/>
+      <c r="H187" s="9"/>
+      <c r="L187" s="52"/>
     </row>
     <row r="188" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H188" s="11"/>
-      <c r="L188" s="55"/>
+      <c r="H188" s="9"/>
+      <c r="L188" s="52"/>
     </row>
     <row r="189" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H189" s="11"/>
-      <c r="L189" s="55"/>
+      <c r="H189" s="9"/>
+      <c r="L189" s="52"/>
     </row>
     <row r="190" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H190" s="11"/>
-      <c r="L190" s="55"/>
+      <c r="H190" s="9"/>
+      <c r="L190" s="52"/>
     </row>
     <row r="191" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H191" s="11"/>
-      <c r="L191" s="55"/>
+      <c r="H191" s="9"/>
+      <c r="L191" s="52"/>
     </row>
     <row r="192" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H192" s="11"/>
-      <c r="L192" s="55"/>
+      <c r="H192" s="9"/>
+      <c r="L192" s="52"/>
     </row>
     <row r="193" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H193" s="11"/>
-      <c r="L193" s="55"/>
+      <c r="H193" s="9"/>
+      <c r="L193" s="52"/>
     </row>
     <row r="194" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H194" s="11"/>
-      <c r="L194" s="55"/>
+      <c r="H194" s="9"/>
+      <c r="L194" s="52"/>
     </row>
     <row r="195" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H195" s="11"/>
-      <c r="L195" s="55"/>
+      <c r="H195" s="9"/>
+      <c r="L195" s="52"/>
     </row>
     <row r="196" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H196" s="11"/>
-      <c r="L196" s="55"/>
+      <c r="H196" s="9"/>
+      <c r="L196" s="52"/>
     </row>
     <row r="197" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H197" s="11"/>
-      <c r="L197" s="55"/>
+      <c r="H197" s="9"/>
+      <c r="L197" s="52"/>
     </row>
     <row r="198" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H198" s="11"/>
-      <c r="L198" s="55"/>
+      <c r="H198" s="9"/>
+      <c r="L198" s="52"/>
     </row>
     <row r="199" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H199" s="11"/>
-      <c r="L199" s="55"/>
+      <c r="H199" s="9"/>
+      <c r="L199" s="52"/>
     </row>
     <row r="200" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H200" s="11"/>
-      <c r="L200" s="55"/>
+      <c r="H200" s="9"/>
+      <c r="L200" s="52"/>
     </row>
     <row r="201" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H201" s="11"/>
-      <c r="L201" s="55"/>
+      <c r="H201" s="9"/>
+      <c r="L201" s="52"/>
     </row>
     <row r="202" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H202" s="11"/>
-      <c r="L202" s="55"/>
+      <c r="H202" s="9"/>
+      <c r="L202" s="52"/>
     </row>
     <row r="203" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H203" s="11"/>
-      <c r="L203" s="55"/>
+      <c r="H203" s="9"/>
+      <c r="L203" s="52"/>
     </row>
     <row r="204" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H204" s="11"/>
-      <c r="L204" s="55"/>
+      <c r="H204" s="9"/>
+      <c r="L204" s="52"/>
     </row>
     <row r="205" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H205" s="11"/>
-      <c r="L205" s="55"/>
+      <c r="H205" s="9"/>
+      <c r="L205" s="52"/>
     </row>
     <row r="206" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H206" s="11"/>
-      <c r="L206" s="55"/>
+      <c r="H206" s="9"/>
+      <c r="L206" s="52"/>
     </row>
     <row r="207" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H207" s="11"/>
-      <c r="L207" s="55"/>
+      <c r="H207" s="9"/>
+      <c r="L207" s="52"/>
     </row>
     <row r="208" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H208" s="11"/>
-      <c r="L208" s="55"/>
+      <c r="H208" s="9"/>
+      <c r="L208" s="52"/>
     </row>
     <row r="209" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H209" s="11"/>
-      <c r="L209" s="55"/>
+      <c r="H209" s="9"/>
+      <c r="L209" s="52"/>
     </row>
     <row r="210" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H210" s="11"/>
-      <c r="L210" s="55"/>
+      <c r="H210" s="9"/>
+      <c r="L210" s="52"/>
     </row>
     <row r="211" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H211" s="11"/>
-      <c r="L211" s="55"/>
+      <c r="H211" s="9"/>
+      <c r="L211" s="52"/>
     </row>
     <row r="212" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H212" s="11"/>
-      <c r="L212" s="55"/>
+      <c r="H212" s="9"/>
+      <c r="L212" s="52"/>
     </row>
     <row r="213" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H213" s="11"/>
-      <c r="L213" s="55"/>
+      <c r="H213" s="9"/>
+      <c r="L213" s="52"/>
     </row>
     <row r="214" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H214" s="11"/>
-      <c r="L214" s="55"/>
+      <c r="H214" s="9"/>
+      <c r="L214" s="52"/>
     </row>
     <row r="215" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H215" s="11"/>
-      <c r="L215" s="55"/>
+      <c r="H215" s="9"/>
+      <c r="L215" s="52"/>
     </row>
     <row r="216" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H216" s="11"/>
-      <c r="L216" s="55"/>
+      <c r="H216" s="9"/>
+      <c r="L216" s="52"/>
     </row>
     <row r="217" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H217" s="11"/>
-      <c r="L217" s="55"/>
+      <c r="H217" s="9"/>
+      <c r="L217" s="52"/>
     </row>
     <row r="218" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H218" s="11"/>
-      <c r="L218" s="55"/>
+      <c r="H218" s="9"/>
+      <c r="L218" s="52"/>
     </row>
     <row r="219" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H219" s="11"/>
-      <c r="L219" s="55"/>
+      <c r="H219" s="9"/>
+      <c r="L219" s="52"/>
     </row>
     <row r="220" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H220" s="11"/>
-      <c r="L220" s="55"/>
+      <c r="H220" s="9"/>
+      <c r="L220" s="52"/>
     </row>
     <row r="221" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H221" s="11"/>
-      <c r="L221" s="55"/>
+      <c r="H221" s="9"/>
+      <c r="L221" s="52"/>
     </row>
     <row r="222" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H222" s="11"/>
-      <c r="L222" s="55"/>
+      <c r="H222" s="9"/>
+      <c r="L222" s="52"/>
     </row>
     <row r="223" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H223" s="11"/>
-      <c r="L223" s="55"/>
+      <c r="H223" s="9"/>
+      <c r="L223" s="52"/>
     </row>
     <row r="224" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H224" s="11"/>
-      <c r="L224" s="55"/>
+      <c r="H224" s="9"/>
+      <c r="L224" s="52"/>
     </row>
     <row r="225" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H225" s="11"/>
-      <c r="L225" s="55"/>
+      <c r="H225" s="9"/>
+      <c r="L225" s="52"/>
     </row>
     <row r="226" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H226" s="11"/>
-      <c r="L226" s="55"/>
+      <c r="H226" s="9"/>
+      <c r="L226" s="52"/>
     </row>
     <row r="227" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H227" s="11"/>
-      <c r="L227" s="55"/>
+      <c r="H227" s="9"/>
+      <c r="L227" s="52"/>
     </row>
     <row r="228" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H228" s="11"/>
-      <c r="L228" s="55"/>
+      <c r="H228" s="9"/>
+      <c r="L228" s="52"/>
     </row>
     <row r="229" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H229" s="11"/>
-      <c r="L229" s="55"/>
+      <c r="H229" s="9"/>
+      <c r="L229" s="52"/>
     </row>
     <row r="230" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H230" s="11"/>
-      <c r="L230" s="55"/>
+      <c r="H230" s="9"/>
+      <c r="L230" s="52"/>
     </row>
     <row r="231" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H231" s="11"/>
-      <c r="L231" s="55"/>
+      <c r="H231" s="9"/>
+      <c r="L231" s="52"/>
     </row>
     <row r="232" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H232" s="11"/>
-      <c r="L232" s="55"/>
+      <c r="H232" s="9"/>
+      <c r="L232" s="52"/>
     </row>
     <row r="233" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H233" s="11"/>
-      <c r="L233" s="55"/>
+      <c r="H233" s="9"/>
+      <c r="L233" s="52"/>
     </row>
     <row r="234" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H234" s="11"/>
-      <c r="L234" s="55"/>
+      <c r="H234" s="9"/>
+      <c r="L234" s="52"/>
     </row>
     <row r="235" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H235" s="11"/>
-      <c r="L235" s="55"/>
+      <c r="H235" s="9"/>
+      <c r="L235" s="52"/>
     </row>
     <row r="236" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H236" s="11"/>
-      <c r="L236" s="55"/>
+      <c r="H236" s="9"/>
+      <c r="L236" s="52"/>
     </row>
     <row r="237" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H237" s="11"/>
-      <c r="L237" s="55"/>
+      <c r="H237" s="9"/>
+      <c r="L237" s="52"/>
     </row>
     <row r="238" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H238" s="11"/>
-      <c r="L238" s="55"/>
+      <c r="H238" s="9"/>
+      <c r="L238" s="52"/>
     </row>
     <row r="239" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H239" s="11"/>
-      <c r="L239" s="55"/>
+      <c r="H239" s="9"/>
+      <c r="L239" s="52"/>
     </row>
     <row r="240" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H240" s="11"/>
-      <c r="L240" s="55"/>
+      <c r="H240" s="9"/>
+      <c r="L240" s="52"/>
     </row>
     <row r="241" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H241" s="11"/>
-      <c r="L241" s="55"/>
+      <c r="H241" s="9"/>
+      <c r="L241" s="52"/>
     </row>
     <row r="242" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H242" s="11"/>
-      <c r="L242" s="55"/>
+      <c r="H242" s="9"/>
+      <c r="L242" s="52"/>
     </row>
     <row r="243" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H243" s="11"/>
-      <c r="L243" s="55"/>
+      <c r="H243" s="9"/>
+      <c r="L243" s="52"/>
     </row>
     <row r="244" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H244" s="11"/>
-      <c r="L244" s="55"/>
+      <c r="H244" s="9"/>
+      <c r="L244" s="52"/>
     </row>
     <row r="245" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H245" s="11"/>
-      <c r="L245" s="55"/>
+      <c r="H245" s="9"/>
+      <c r="L245" s="52"/>
     </row>
     <row r="246" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H246" s="11"/>
-      <c r="L246" s="55"/>
+      <c r="H246" s="9"/>
+      <c r="L246" s="52"/>
     </row>
     <row r="247" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H247" s="11"/>
-      <c r="L247" s="55"/>
+      <c r="H247" s="9"/>
+      <c r="L247" s="52"/>
     </row>
     <row r="248" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H248" s="11"/>
-      <c r="L248" s="55"/>
+      <c r="H248" s="9"/>
+      <c r="L248" s="52"/>
     </row>
     <row r="249" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H249" s="11"/>
-      <c r="L249" s="55"/>
+      <c r="H249" s="9"/>
+      <c r="L249" s="52"/>
     </row>
     <row r="250" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H250" s="11"/>
-      <c r="L250" s="55"/>
+      <c r="H250" s="9"/>
+      <c r="L250" s="52"/>
     </row>
     <row r="251" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H251" s="11"/>
-      <c r="L251" s="55"/>
+      <c r="H251" s="9"/>
+      <c r="L251" s="52"/>
     </row>
     <row r="252" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H252" s="11"/>
-      <c r="L252" s="55"/>
+      <c r="H252" s="9"/>
+      <c r="L252" s="52"/>
     </row>
     <row r="253" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H253" s="11"/>
-      <c r="L253" s="55"/>
+      <c r="H253" s="9"/>
+      <c r="L253" s="52"/>
     </row>
     <row r="254" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H254" s="11"/>
-      <c r="L254" s="55"/>
+      <c r="H254" s="9"/>
+      <c r="L254" s="52"/>
     </row>
     <row r="255" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H255" s="11"/>
-      <c r="L255" s="55"/>
+      <c r="H255" s="9"/>
+      <c r="L255" s="52"/>
     </row>
     <row r="256" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H256" s="11"/>
-      <c r="L256" s="55"/>
+      <c r="H256" s="9"/>
+      <c r="L256" s="52"/>
     </row>
     <row r="257" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H257" s="11"/>
-      <c r="L257" s="55"/>
+      <c r="H257" s="9"/>
+      <c r="L257" s="52"/>
     </row>
     <row r="258" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H258" s="11"/>
-      <c r="L258" s="55"/>
+      <c r="H258" s="9"/>
+      <c r="L258" s="52"/>
     </row>
     <row r="259" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H259" s="11"/>
-      <c r="L259" s="55"/>
+      <c r="H259" s="9"/>
+      <c r="L259" s="52"/>
     </row>
     <row r="260" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H260" s="11"/>
-      <c r="L260" s="55"/>
+      <c r="H260" s="9"/>
+      <c r="L260" s="52"/>
     </row>
     <row r="261" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H261" s="11"/>
-      <c r="L261" s="55"/>
+      <c r="H261" s="9"/>
+      <c r="L261" s="52"/>
     </row>
     <row r="262" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H262" s="11"/>
-      <c r="L262" s="55"/>
+      <c r="H262" s="9"/>
+      <c r="L262" s="52"/>
     </row>
     <row r="263" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H263" s="11"/>
-      <c r="L263" s="55"/>
+      <c r="H263" s="9"/>
+      <c r="L263" s="52"/>
     </row>
     <row r="264" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H264" s="11"/>
-      <c r="L264" s="55"/>
+      <c r="H264" s="9"/>
+      <c r="L264" s="52"/>
     </row>
     <row r="265" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H265" s="11"/>
-      <c r="L265" s="55"/>
+      <c r="H265" s="9"/>
+      <c r="L265" s="52"/>
     </row>
     <row r="266" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H266" s="11"/>
-      <c r="L266" s="55"/>
+      <c r="H266" s="9"/>
+      <c r="L266" s="52"/>
     </row>
     <row r="267" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H267" s="11"/>
-      <c r="L267" s="55"/>
+      <c r="H267" s="9"/>
+      <c r="L267" s="52"/>
     </row>
     <row r="268" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H268" s="11"/>
-      <c r="L268" s="55"/>
+      <c r="H268" s="9"/>
+      <c r="L268" s="52"/>
     </row>
     <row r="269" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H269" s="11"/>
-      <c r="L269" s="55"/>
+      <c r="H269" s="9"/>
+      <c r="L269" s="52"/>
     </row>
     <row r="270" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H270" s="11"/>
-      <c r="L270" s="55"/>
+      <c r="H270" s="9"/>
+      <c r="L270" s="52"/>
     </row>
     <row r="271" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H271" s="11"/>
-      <c r="L271" s="55"/>
+      <c r="H271" s="9"/>
+      <c r="L271" s="52"/>
     </row>
     <row r="272" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H272" s="11"/>
-      <c r="L272" s="55"/>
+      <c r="H272" s="9"/>
+      <c r="L272" s="52"/>
     </row>
     <row r="273" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H273" s="11"/>
-      <c r="L273" s="55"/>
+      <c r="H273" s="9"/>
+      <c r="L273" s="52"/>
     </row>
     <row r="274" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H274" s="11"/>
-      <c r="L274" s="55"/>
+      <c r="H274" s="9"/>
+      <c r="L274" s="52"/>
     </row>
     <row r="275" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H275" s="11"/>
-      <c r="L275" s="55"/>
+      <c r="H275" s="9"/>
+      <c r="L275" s="52"/>
     </row>
     <row r="276" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H276" s="11"/>
-      <c r="L276" s="55"/>
+      <c r="H276" s="9"/>
+      <c r="L276" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17058,62 +17228,377 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B75784-AEEA-4F19-88AF-E3B0C7C90F40}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="49">
         <v>14</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="50">
         <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="49">
         <v>21</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="50">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="49">
         <v>21</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="50">
         <v>0.3</v>
       </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="50"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="50"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="50"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="50"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="21"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="21"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="50"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="50"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="50"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="21"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="50"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="21"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="50"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="50"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="50"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="50"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="21"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="50"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="21"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="50"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17122,75 +17607,453 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893AD85E-23F5-4F43-BB71-DCBDD4D1CF5F}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="50">
         <v>0.2</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="50">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="50">
         <v>0.6</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="50">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="50">
         <v>0.2</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="50">
         <v>0.1</v>
       </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="21"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="21"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="21"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="21"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="21"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="21"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
